--- a/Source code/output.xlsx
+++ b/Source code/output.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2082" uniqueCount="702">
   <si>
     <t>Emotion</t>
   </si>
@@ -52,79 +52,79 @@
     <t>cho nghỉ viêc mói đúng sao goi là kỷ luật</t>
   </si>
   <si>
-    <t>kinh vkl pouting_face</t>
-  </si>
-  <si>
-    <t>nhà thì không xa lắm nhưng chưa bao giờ đi vì sợ bị đè bẹp luôn người slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>bố không thích nộp đấy mày thích kiến không</t>
-  </si>
-  <si>
-    <t>bắt cóc bỏ đĩa quanh đi quẩn lại chỉ khổ dân đen thôi</t>
+    <t>kinh vkl pouting _ face</t>
+  </si>
+  <si>
+    <t>nhà thì không xa lắm nhưng chưa bao giờ đi vì sợ bị đè bẹp luôn người cười mĩm</t>
+  </si>
+  <si>
+    <t>bố không thích nộp đấy mày thích ý kiến không</t>
+  </si>
+  <si>
+    <t>bắt cóc bỏ đĩa quanh đi quẩn lại chỉ khổ dân đen thôi !</t>
   </si>
   <si>
     <t>per khi nào bạn có bằng xe ôtô thì bạn mới hiểu sai thì đã có công an</t>
   </si>
   <si>
-    <t>một hành động đẹp đầy tính nhân văn smiling_face smiling_face</t>
+    <t>một hành động đẹp đầy tính nhân văn smiling _ face smiling _ face</t>
   </si>
   <si>
     <t>anh nhỏ nhẹ xin 100 nghìn rồi trước khi đi còn chào người đẹp đi cẩn thận</t>
   </si>
   <si>
-    <t>per trình mày vẫn còn thấp chán slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>mấy ai được như vậy</t>
-  </si>
-  <si>
-    <t>có ai như tao vô đọc bình luận rolling_on_the_floor_laughing tao cười tao xĩu</t>
-  </si>
-  <si>
-    <t>ủa má đứa yêu nhau vô duyên và sân si giống nhau vậy</t>
-  </si>
-  <si>
-    <t>góp vui cho chủ thớt face_with_tears_of_joy face_with_tears_of_joy</t>
+    <t>per trình mày vẫn còn thấp chán cười mĩm</t>
+  </si>
+  <si>
+    <t>mấy ai được như vậy ?</t>
+  </si>
+  <si>
+    <t>có ai như tao vô đọc bình luận rolling _ on _ the _ floor _ laughing tao cười tao xĩu</t>
+  </si>
+  <si>
+    <t>ủa má 2 đứa yêu nhau vô duyên và sân si giống nhau vậy ?</t>
+  </si>
+  <si>
+    <t>góp vui cho chủ thớt face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
   </si>
   <si>
     <t>sống 17 năm chưa crush ai bao giờ</t>
   </si>
   <si>
-    <t>ổng quay thiệt mà sao chửi ổng thế không quay sao máy bạn xem được đó slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>thần kinh cái đầu mày</t>
-  </si>
-  <si>
-    <t>nghe ngọt thế frowning_face</t>
+    <t>ổng quay thiệt mà sao chửi ổng thế không quay sao máy bạn xem được đó cười mĩm</t>
+  </si>
+  <si>
+    <t>thần kinh cái đầu mày …</t>
+  </si>
+  <si>
+    <t>nghe ngọt thế cảm thấy buồn</t>
   </si>
   <si>
     <t>sao lại cứ phải thế nhỉ</t>
   </si>
   <si>
-    <t>mệt vkl mà cừời cũng vkl</t>
-  </si>
-  <si>
-    <t>kinh khủng thật frowning_face</t>
-  </si>
-  <si>
-    <t>hậu duệ mặt trời đấy chứ đùa đâu nhá kissing_face kissing_face</t>
-  </si>
-  <si>
-    <t>tôi phú yên và anh này nói rất chuẩn</t>
-  </si>
-  <si>
-    <t>đứa nào bị táo bón thâm niên cứ ra cầu này mà nhảy đảm bảo hiệu quả ngay lần đầu trải nghiệm rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
+    <t>mệt vkl mà cừời cũng vkl ?</t>
+  </si>
+  <si>
+    <t>kinh khủng thật cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>hậu duệ mặt trời đấy chứ đùa đâu nhá kissing _ face kissing _ face</t>
+  </si>
+  <si>
+    <t>tôi ở phú yên và anh này nói rất chuẩn 3</t>
+  </si>
+  <si>
+    <t>đứa nào bị táo bón thâm niên cứ ra cầu này mà nhảy đảm bảo hiệu quả ngay lần đầu trải nghiệm rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
   </si>
   <si>
     <t>trơi ơi sao lại cháy chứ</t>
   </si>
   <si>
-    <t>có những người không có thức bỏ quần áo rách hoặc mặc rồi để vào tủ để đỡ phải đi vứt</t>
-  </si>
-  <si>
-    <t>per khi nhưng vẫn phải giương mắt nhìn bọn nó ân ái</t>
+    <t>có những người không có ý thức bỏ quần áo rách hoặc mặc rồi để vào tủ để đỡ phải đi vứt</t>
+  </si>
+  <si>
+    <t>per khi ế nhưng vẫn phải giương mắt nhìn bọn nó ân ái</t>
   </si>
   <si>
     <t>per tiến cử bản thân nào</t>
@@ -133,7 +133,7 @@
     <t>vẫn chọn techcombank là ngân hàng đồng hành</t>
   </si>
   <si>
-    <t>per dạo này ít tung tăng hơn xưa nên hơi trầm cảm dồi chăng flushed_face</t>
+    <t>per dạo này ít tung tăng hơn xưa nên hơi trầm cảm dồi chăng flushed _ face</t>
   </si>
   <si>
     <t>địt con mẹ sao sao nó nói tiếng việt được vậy</t>
@@ -148,22 +148,22 @@
     <t>từ nay ho thì phải kiếm chỗ nào nằm tạm</t>
   </si>
   <si>
-    <t>tao đéo ngờ được đây là trường tao slightly_smiling_face</t>
+    <t>tao đéo ngờ được đây là trường tao cười mĩm</t>
   </si>
   <si>
     <t>yêu nghề thực sự</t>
   </si>
   <si>
-    <t>slightly_smiling_face ra thấy nó xấu chó thì lại về chặn số</t>
+    <t>cười mĩm ra thấy nó xấu chó thì lại về chặn số à</t>
   </si>
   <si>
     <t>này là xạo chó chứ nguyên giá gì kinh doanh là phải lừa lọc lừa giỏi diễn đạt thì giàu</t>
   </si>
   <si>
-    <t>thức con ruồi là chủ yếu thì ngập rác là chuyện đương nhiên</t>
-  </si>
-  <si>
-    <t>phim hay thật nhưng cái kết hơi khó hiểu rolling_on_the_floor_laughing chốt lại là đáng đồng tiền bát gạo rolling_on_the_floor_laughing</t>
+    <t>ý thức con ruồi là chủ yếu thì ngập rác là chuyện đương nhiên</t>
+  </si>
+  <si>
+    <t>phim hay thật nhưng cái kết hơi khó hiểu cười lăn lộn chốt lại là đáng đồng tiền bát gạo cười lăn lộn</t>
   </si>
   <si>
     <t>trời đụ thằng con trời đánh</t>
@@ -175,52 +175,52 @@
     <t>bọn biến thái</t>
   </si>
   <si>
-    <t>nào thức tỉnh đi các bạn ơi grinning_face_with_big_eyes</t>
+    <t>nào thức tỉnh đi các bạn ơi grinning _ face _ with _ big _ eyes</t>
   </si>
   <si>
     <t>chắc chắn bố của bạn này là một người vui tính chứ không phải khó tính khiếu khôi hài bạn ấy ảnh hưởng từ bố</t>
   </si>
   <si>
-    <t>chất lượng âm thanh bản này hình như nghe hay hơn bản gốc hồi mấy năm trước nhiều</t>
-  </si>
-  <si>
-    <t>mặt chúng bạn kiểu lại đéo được chả tiền rồi disappointed_face</t>
-  </si>
-  <si>
-    <t>mình chưa từng thấy phim nào nghĩa như phim này cả nó dạy cho ta về nhiều mặt trong cuộc sống khi vui khi buồn</t>
-  </si>
-  <si>
-    <t>nhìn thôi cũng đau lòng slightly_smiling_face</t>
+    <t>chất lượng âm thanh bản này hình như nghe hay hơn bản gốc hồi mấy năm trước nhiều 3</t>
+  </si>
+  <si>
+    <t>mặt chúng bạn kiểu lại đéo được chả tiền rồi disappointed _ face</t>
+  </si>
+  <si>
+    <t>mình chưa từng thấy phim nào ý nghĩa như phim này cả nó dạy cho ta về nhiều mặt trong cuộc sống khi vui khi buồn</t>
+  </si>
+  <si>
+    <t>nhìn thôi cũng đau lòng cười mĩm</t>
   </si>
   <si>
     <t>xem cái con cặc gì tắt đi</t>
   </si>
   <si>
-    <t>sao có dầu ăn đây nhỉ</t>
-  </si>
-  <si>
-    <t>dưới nước không nhìn được kiểu gì chả có đứa sờ mông sờ địt con mẹ súc vật slightly_smiling_face</t>
+    <t>sao có dầu ăn ở đây nhỉ ?</t>
+  </si>
+  <si>
+    <t>dưới nước không nhìn được kiểu gì chả có đứa sờ mông sờ địt con mẹ súc vật cười mĩm</t>
   </si>
   <si>
     <t>tao rất sợ mất đứa tỏ ra như thế</t>
   </si>
   <si>
-    <t>per ơi anh muốn anh và nó sẽ bảo vệ đời em smiling_face_with_sunglasses</t>
+    <t>per ơi anh muốn anh và nó sẽ bảo vệ đời em smiling _ face _ with _ sunglasses</t>
   </si>
   <si>
     <t>tao cũng thế mà ba tao vứt hết mẹ rồi</t>
   </si>
   <si>
-    <t>đến cái camera nó cũng hắt hủi mày slightly_smiling_face chớt đi chứ sống nàm gì nữa</t>
-  </si>
-  <si>
-    <t>hú hồn cái vkl còn nguyên slightly_smiling_face</t>
+    <t>đến cái camera nó cũng hắt hủi mày cười mĩm chớt đi chứ sống nàm gì nữa</t>
+  </si>
+  <si>
+    <t>hú hồn cái vkl còn nguyên cười mĩm</t>
   </si>
   <si>
     <t>vẫn thắc mắc tại sao trước mình thi vào 10 lại dễ thế</t>
   </si>
   <si>
-    <t>có vẻ người dân hơi mê tín quá face_with_tears_of_joy</t>
+    <t>có vẻ người dân hơi mê tín quá face _ with _ tears _ of _ joy</t>
   </si>
   <si>
     <t>mình chả hùa mình vẫn đỗ nhắn tin</t>
@@ -229,16 +229,16 @@
     <t>tôi còn chẳng lấy ảnh lớp cho nữa</t>
   </si>
   <si>
-    <t>per sáng may kiểu gì cũng về tới nhà slightly_smiling_face</t>
+    <t>per sáng may kiểu gì cũng về tới nhà cười mĩm</t>
   </si>
   <si>
     <t>đợt trước con em tao đi học cũng bị con kia hăm đòi đánh tao lên tận trường kêu nó ra bảo mày muốn đánh tao cho tụi mày đánh đó học sinh mà bố láo</t>
   </si>
   <si>
-    <t>tôi cũng muốn được cảm thấy như vậy</t>
-  </si>
-  <si>
-    <t>xăm chữ trái và phải lên mu bàn tay hy vọng là mày vẫn biết phâ biệt mặt chữ slightly_smiling_face</t>
+    <t>tôi cũng muốn được cảm thấy như vậy ?</t>
+  </si>
+  <si>
+    <t>xăm chữ trái và phải lên mu bàn tay hy vọng là mày vẫn biết phâ biệt mặt chữ cười mĩm</t>
   </si>
   <si>
     <t>sang năm quyết định đi ngủ cho đỡ mỏi mắt</t>
@@ -247,925 +247,928 @@
     <t>khi nào vụ này kết thúc thì mình uống cà phê trung nguyên trở lại sợ làm giàu cho cô per lắm</t>
   </si>
   <si>
-    <t>đến năm cuối đại học rồi lúc nhớ lại đéo có gì slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>tao chắc bỏ nhà ra đi khi dới bố mẹ kiểu này quá vẫn may bố mẹ tao không hề giống này tí nào</t>
+    <t>đến năm cuối đại học rồi lúc nhớ lại đéo có gì cười mĩm</t>
+  </si>
+  <si>
+    <t>tao chắc bỏ nhà ra đi khi ở dới bố mẹ kiểu này quá vẫn may bố mẹ tao không hề giống này tí nào</t>
   </si>
   <si>
     <t>đứa con gái nào mà đề nghị là biết bị ma nhập mà né nha mấy cha</t>
   </si>
   <si>
-    <t>đéo phải ai cũng được đặt tên cho thuật bán hàng trong kinh doanh đâu chấm hết</t>
+    <t>đéo phải ai cũng được đặt tên cho 1 thuật bán hàng trong kinh doanh đâu chấm hết</t>
   </si>
   <si>
     <t>per mấy con đĩ vkl cục súc dòng thứ quỷ yêu đéo làm gì cũng rượt cho sấp mặt luôn</t>
   </si>
   <si>
-    <t>hình như bồ tao cũng tập gym face_without_mouth face_without_mouth</t>
-  </si>
-  <si>
-    <t>lúc trước chạy xe đạp đi ngang qua đàn vịt có mấy con ngỗng lẫn trong đó thế là địt con mẹ tụi nó rượt tao vừa chạy vừa la cái thứ âm thanh nghe hiếp em đi làm tao sợ tụt vkl slightly_smiling_face</t>
+    <t>hình như bồ tao cũng tập gym face _ without _ mouth face _ without _ mouth</t>
+  </si>
+  <si>
+    <t>lúc trước chạy xe đạp đi ngang qua đàn vịt có mấy con ngỗng lẫn trong đó thế là địt con mẹ tụi nó rượt tao vừa chạy vừa la cái thứ âm thanh nghe ứ ứ hiếp em đi làm tao sợ tụt vkl cười mĩm</t>
   </si>
   <si>
     <t>tên của tao nghe rất bình thương không có gì đặc sắc nên nhiều khi nghĩ cùng buồn tẹo</t>
   </si>
   <si>
-    <t>thích slightly_smiling_face đi làm vui hay không là có đồng nghiệp tốt đừng chơi xấu mình là được slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>per xem đi mày sẽ sướng thi nhìn con nhện bị giết face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>chạm đáy nỗi đau disappointed_face</t>
-  </si>
-  <si>
-    <t>thế ông bác sĩ đó bây giờ còn sống không slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>disappointed_face đó sẽ là những kỉ niệm thật đẹp</t>
-  </si>
-  <si>
-    <t>per chưa bị rượt mà đọc bình luận thấy sợ quá chắc tao sợ chó không là gì dới con này slightly_smiling_face</t>
+    <t>thích cười mĩm đi làm vui hay không là có đồng nghiệp tốt đừng chơi xấu mình là được cười mĩm</t>
+  </si>
+  <si>
+    <t>per xem đi mày sẽ sướng thi nhìn con nhện bị giết face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>chạm đáy nỗi đau disappointed _ face</t>
+  </si>
+  <si>
+    <t>thế ông bác sĩ đó bây giờ còn sống không slightly _ smiling _ face</t>
+  </si>
+  <si>
+    <t>disappointed _ face đó sẽ là những kỉ niệm thật đẹp</t>
+  </si>
+  <si>
+    <t>per chưa bị rượt mà đọc bình luận thấy sợ quá chắc tao sợ chó không là gì dới con này cười mĩm</t>
   </si>
   <si>
     <t>bắt cóc như chơi đó mậy be careful</t>
   </si>
   <si>
-    <t>đảng ta bao dung thật</t>
-  </si>
-  <si>
-    <t>rất tiếc em vẫn chưa gặp được anh frowning_face</t>
+    <t>đảng ta bao dung thật 3</t>
+  </si>
+  <si>
+    <t>rất tiếc em vẫn chưa gặp được anh cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>đái mẹ ra quần ?</t>
+  </si>
+  <si>
+    <t>có ai không nghe thấy nói gì mà toàn xem hình người con gái ấy không face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>đẹp trai ghê cười mĩm</t>
+  </si>
+  <si>
+    <t>dụ đấy đừng tin</t>
+  </si>
+  <si>
+    <t>tán cây hình trái tim thì phải</t>
+  </si>
+  <si>
+    <t>làm việc vất vả mới được miếng ăn mà chúng nó khốn nạn thật</t>
+  </si>
+  <si>
+    <t>dễ thương quá à</t>
+  </si>
+  <si>
+    <t>tốt nhất không miễn phí cho những thể loại người như vậy nhắc nhỉ thẳng thắn</t>
+  </si>
+  <si>
+    <t>gần thôi cười mĩm giờ nhìn lại đề thi và không hiểu sao mình ra trường được cười mĩm</t>
+  </si>
+  <si>
+    <t>những đứa như vậy quá hèn</t>
+  </si>
+  <si>
+    <t>hồi xưa làm fanpage được gạ kèo 7 triệu nhưng nhất quyết không bán cảm thấy quyết định đúng đắn nhất trong đời</t>
+  </si>
+  <si>
+    <t>per lúc xưa toàn nấu bằng bếp nay</t>
+  </si>
+  <si>
+    <t>per luôn yêu đời và luôn yêu công việc em nhé</t>
+  </si>
+  <si>
+    <t>ngày trước thì đòi dấn thân vào showbiz giờ lại đòi lấy chồng đại gia đâu ra lắm thế</t>
+  </si>
+  <si>
+    <t>phim này coi lâu lắm ùi mà mỗi năm phải coi lại 1 - 2 lần mới đủ thực sự cực kì hay và sâu sắc nhạc phim hay mà diễn cũng rất nhập nữa amir khan đỉnh nhất cười mĩm</t>
+  </si>
+  <si>
+    <t>đần mặt ra nhìn nó y như con ngu còn cười theo nó nữa xong bị nó phát hiện</t>
+  </si>
+  <si>
+    <t>bà tôi giờ mất mấy năm rồi giờ lớn lên rồi mà chả tặng được bà món quà nào cả loudly _ crying _ face loudly _ crying _ face loudly _ crying _ face</t>
+  </si>
+  <si>
+    <t>hãm vkl là khi mình đéo ra gì còn đi nói người khác face _ with _ hand _ over _ mouth</t>
+  </si>
+  <si>
+    <t>ý thức như vkl vậy ai cũng như mày thì máy bay quá tải dẫn tới chết chùm ý thức như vkl vậy mà còn đăng lên</t>
+  </si>
+  <si>
+    <t>ai chửi admin ngu chứng tỏ eq thấp tệ</t>
+  </si>
+  <si>
+    <t>nấu mì 2 tôm là vô địch</t>
+  </si>
+  <si>
+    <t>mấy anh thiệt là nóng bỏng !</t>
+  </si>
+  <si>
+    <t>qua chạy xe nẹt nẹt bốc đầu bố ai dám vô</t>
+  </si>
+  <si>
+    <t>chia se cho ai thích thể hiện nè</t>
+  </si>
+  <si>
+    <t>em mày cách mày bao nhiêu tuổi ?</t>
+  </si>
+  <si>
+    <t>thật chứ thấy bạn nam kia cứu con chó không cần nhìn mặt cũng biết đẹp trai rồi grinning _ squinting _ face</t>
+  </si>
+  <si>
+    <t>đó là những câu chuyện buồn mà cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>diễn còn cứng quá à kiểu biết rồi mà còn giả bộ bất ngờ cười mĩm</t>
+  </si>
+  <si>
+    <t>làm người khác thỏa mãn bằng mùi hương của chính bản thân</t>
+  </si>
+  <si>
+    <t>dkm xấu mặt những thằng tập gym vkl tao đéo hiểu sao thằng này nó lại thích đi đường tiểu ngạch là sao</t>
+  </si>
+  <si>
+    <t>chỉ cần cho em nó 1 điểm tựa em nó sẽ không ngán cả thế giới cười mĩm</t>
+  </si>
+  <si>
+    <t>per một lần thôi không có lần thứ hai đâu smiling _ face _ with _ smiling _ eyes</t>
+  </si>
+  <si>
+    <t>con đường này chắc dành cho mấy người như tôi</t>
+  </si>
+  <si>
+    <t>đã bị đuổi 1 lần đéo làm gì cũng bị dí</t>
+  </si>
+  <si>
+    <t>lựa chọn cách thức tuyển như thế nào thì tốt quá rồi</t>
+  </si>
+  <si>
+    <t>lùi về sau 3 bước đi ngứa cả con mắt</t>
+  </si>
+  <si>
+    <t>tội bà vợ</t>
+  </si>
+  <si>
+    <t>đẳng cấp cười mĩm</t>
+  </si>
+  <si>
+    <t>nhìn mặt ổng nhẫn nhìn kìa cười mĩm tao chờ sen tao ra thôi lúc đó tao tung hê hết expressionless _ face</t>
+  </si>
+  <si>
+    <t>dễ thương face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>đỉnh rồi hiệu ứng tốt cười mĩm ấn tượng vãi _ chưởng luôn</t>
+  </si>
+  <si>
+    <t>không có biển cấm dừng đỗ nhưng đỗ thò đầu ở ngã 3 kia là rất bố láo</t>
+  </si>
+  <si>
+    <t>khi mày tắt điện thoại một buổi sáng và tao nhảy tưng tưng lên cười mĩm</t>
+  </si>
+  <si>
+    <t>vèo cái đã 7 năm confused _ face</t>
+  </si>
+  <si>
+    <t>địt con mẹ ngồi chờ đã rồi các tổng đài viên đều bận loudly _ crying _ face loudly _ crying _ face loudly _ crying _ face</t>
+  </si>
+  <si>
+    <t>nó đòi mượn áo thôi mà thằng này kỳ</t>
+  </si>
+  <si>
+    <t>cả ngàn tin nhắn không đổi lại được 1 lần xem cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>đúng là tốt quá lai thành lạm dụng face _ without _ mouth</t>
+  </si>
+  <si>
+    <t>tao cũng thế đang ngồi chơi dới con vợ nó đắp mặt nạ lù lù bước vào xém đái trong quần ?</t>
+  </si>
+  <si>
+    <t>cũng là 1 mạng người nên các cụ đừng phũ mồm chửi người ta mong anh ấy sớm siêu thoát anh di đà phật !</t>
+  </si>
+  <si>
+    <t>đây gọi là nghiệp vật</t>
+  </si>
+  <si>
+    <t>có khi không biết thế nào là tự ái đâu cười mĩm</t>
+  </si>
+  <si>
+    <t>cho thơm miếng nào yêu quá cơ</t>
+  </si>
+  <si>
+    <t>liên quan gì tới mày mời đám cưới chắc gì mày đã đi hỏi hỏi con cặc</t>
+  </si>
+  <si>
+    <t>thích cái câu em không yêu anh nữa smiling _ face _ with _ smiling _ eyes smiling _ face _ with _ smiling _ eyes</t>
+  </si>
+  <si>
+    <t>cho tao hỏi lúa nó dính mưa vầy ròi thì làm được gì không</t>
+  </si>
+  <si>
+    <t>nghe bạn này nói dễ thương zị</t>
+  </si>
+  <si>
+    <t>làm công an nào không quan trọng quan trọng là có đồng bọn bảo yến nguyễn hạnh rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>đỗ ngay góc cua thế có ngày sứt mõm ?</t>
+  </si>
+  <si>
+    <t>phát ngán</t>
+  </si>
+  <si>
+    <t>em ý cute vkl !</t>
+  </si>
+  <si>
+    <t>per về nhà mà thể hiện</t>
+  </si>
+  <si>
+    <t>đúng anh có tầm nhìn tâm nữa mình biết</t>
+  </si>
+  <si>
+    <t>củ cà rốt thôi mà cái mẹt đã vây nếu là miếng thịt thì không bít mẹt ra sao nhể face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>cái miệng nói chuyện không có người phụ nữ nào có trời ơi thật là có duyên khiếp quá đi thôi</t>
+  </si>
+  <si>
+    <t>tuyệt vời quá cần nhiều tấm lòng tốt hơn nua thật là ý nghĩa</t>
+  </si>
+  <si>
+    <t>đi đâu cũng gặp mấy cái thứ</t>
+  </si>
+  <si>
+    <t>per sao bố lại đủ bình tĩnh để xem hết cái trailer này nhỉ _ sợ vkl</t>
+  </si>
+  <si>
+    <t>sao mà đỉnh dữ vậy trời</t>
+  </si>
+  <si>
+    <t>hai thằng đó sẽ nhau cô về nhà nằm mơ tiếp đi cô bé</t>
+  </si>
+  <si>
+    <t>thương hy vọng sớm có người cưu mang bé</t>
+  </si>
+  <si>
+    <t>mức thu cao nhất - đồng ý vì số liệu nó thể hiện như vậy chứ còn hiệu quả thì mình không biết đúng không face _ with _ tears _ of _ joy mỗi lần vô vietcombank là hiểu phải đợi mỏi mòn không như những nh khác</t>
+  </si>
+  <si>
+    <t>cần lắm nhiều vụ ly hôn như thế face _ with _ tears _ of _ joy grinning _ face grinning _ face beaming _ face _ with _ smiling _ eyes rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>sời lừa làm sao được tao cười mĩm</t>
+  </si>
+  <si>
+    <t>có bao nhiêu đôi ngôn tình cớ sao lìa xa mình ta cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>đây là một câu chuyện buồn không chỉ riêng tao</t>
+  </si>
+  <si>
+    <t>con gái tao thì suốt ngày hêy siri bắt chước mẹ face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>chạy ios cho máu face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>khâm phục ! quá khâm phục !</t>
+  </si>
+  <si>
+    <t>per dạo này béo quá rồi cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>mau khoẻ nhé cười mĩm</t>
+  </si>
+  <si>
+    <t>quá đơn rản bạn thân yêu ơi</t>
+  </si>
+  <si>
+    <t>tao học nhân sự đây còn đang lo thất nghiệp đây này</t>
+  </si>
+  <si>
+    <t>cắt cả thắt lưng da của bố để làm ná face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>per hẹn xem phim này nữa nha mày face _ with _ tongue</t>
+  </si>
+  <si>
+    <t>per vẫn là con mẻ nay hàng họ to quá cười mĩm</t>
+  </si>
+  <si>
+    <t>đỡ mua 5 ngàn tiền sổ rồi kaka</t>
+  </si>
+  <si>
+    <t>tinh trùng đâu lắm thế</t>
+  </si>
+  <si>
+    <t>per giỏi phết đấy mỗi tội nghịch thôi được cái làm từ thiện nhiều</t>
+  </si>
+  <si>
+    <t>ngọt sớt cười mĩm</t>
+  </si>
+  <si>
+    <t>tuổi thơ mình lớp 4 đã cảm nắng 1 anh chàng từ 1 viên phấn vôi</t>
+  </si>
+  <si>
+    <t>nhìn cái bản mặt bà ta mà ghét thay tham vô độ dân mình nhiều nhà dăn ba tỉ còn khó</t>
+  </si>
+  <si>
+    <t>câu hỏi thú vị grinning _ face _ with _ big _ eyes grinning _ face _ with _ big _ eyes grinning _ face _ with _ big _ eyes</t>
+  </si>
+  <si>
+    <t>cô ấy rất tốt nhưng tôi biết thứ nào tốt đều không dành cho mình</t>
+  </si>
+  <si>
+    <t>địt con mẹ xem mãi quay lưng đi chửa được bước lại dừng cười mĩm</t>
+  </si>
+  <si>
+    <t>không gì hơn ngoài tình thân</t>
+  </si>
+  <si>
+    <t>lạ lùng nhỉ cưỡng hôn trong thang máy thì phạt có 200k coi thường phụ nữ bây giờ phạt 10 triệu vì đàn lợn chết ?</t>
+  </si>
+  <si>
+    <t>thật ra nhiều lúc bị bố mẹ chửi không hiểu vì lí do gì và những câu chửi ấy có những từ không chấp nhận nổi</t>
+  </si>
+  <si>
+    <t>cay mắt lắm mà nhìn nó lại nhớ nhiều kỉ niệm</t>
+  </si>
+  <si>
+    <t>per giảm tốc ở bình dương tuổi gì dới cái này</t>
+  </si>
+  <si>
+    <t>per cười tức bụng nà vợ grinning _ face _ with _ smiling _ eyes</t>
+  </si>
+  <si>
+    <t>what the fuck tao đã làm gì sai frowning _ face frowning _ face frowning _ face</t>
+  </si>
+  <si>
+    <t>tao không sợ đi làm mệt mỏi tao chỉ sợ không có niềm vui dới nó</t>
+  </si>
+  <si>
+    <t>lúc nó điên lên nó chã triệu hồi cả nhà mày ra ấy chứ nhổn</t>
+  </si>
+  <si>
+    <t>còn không đụng vào được tóc của sai mà tự xưng vô địch</t>
+  </si>
+  <si>
+    <t>mất niềm tin vào đàn ông chứ chưa từng mất niềm tin vào tình yêu</t>
+  </si>
+  <si>
+    <t>bọn có tí quan hệ hay thích khoe ngay chị gì quận phó quận x còn gọi cả công an chủ tịch phường ra để dằn mặt dân ?</t>
+  </si>
+  <si>
+    <t>uống hết bia rồi mới về face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>anh thứ 2 cute thế cười mĩm</t>
+  </si>
+  <si>
+    <t>hơi lạ nhỉ phải nhắn lại cho khách chứ grab thế này bị hủy chuyến làm sao</t>
+  </si>
+  <si>
+    <t>chú nghĩ cháu rất giỏi văn và là người có suy nghĩ trưởng thành rồi bouquet rất đáng yêu và tếu giống mấy con giặc nhà chú red _ heart</t>
+  </si>
+  <si>
+    <t>đám người lớn văn hóa lùn đẻ ra một đám trẻ vô học bọn mất dạy này là nhà dột từ nóc ấy mà nên đuổi học cho lũ ngu học ấy về để nhà tiếp nối sự vô học của gia đình chúng nó</t>
+  </si>
+  <si>
+    <t>chủ tịch giả làm ăn xin và cái kết đừng bao giờ coi thường người nghèo</t>
+  </si>
+  <si>
+    <t>có ai chỉ tự yêu bản thân như tôi không cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>không khoe thì không sao khoe ra may lại còn cái gốc haha beaming _ face _ with _ smiling _ eyes</t>
+  </si>
+  <si>
+    <t>nhiệt tình ngu dốt là phải chả giá bằng tiền mặt face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>valentine là lễ tình yêu không phải ngày động dục hãy vì một valentine lành mạnh đi các bạn trẻ upside-down _ face upside-down _ face</t>
+  </si>
+  <si>
+    <t>thấy anh đấy làm tùm lum mà con nhện vẫn đứng im là tao biết có chiêu rồi định gạt anh à</t>
+  </si>
+  <si>
+    <t>có tí rượu vào nhìn đâu cũng thấy mồi nhìn gì cũng ăn được</t>
+  </si>
+  <si>
+    <t>chết luôn tình yêu không phân biệt giới tính tình yêu ơi là tình yêu tao đau khổ vì mày lắm rồi</t>
+  </si>
+  <si>
+    <t>tôi cùng hoàn cảnh dới bạn má tôi củng bệnh và từng ngày từng ngày tôi bên má tôi sợ giây phút má bỏ tôi ra đi và ngày đó củng đến ai còn mẹ hảy quí từng giây từng khắc bên mẹ</t>
+  </si>
+  <si>
+    <t>có mà bữa chạy ngược chiều trên quốc lộ 1a tại có hẻm nhỏ để quẹo tắt chưa kịp quẹo bị 6 anh cảnh sát giao thông 1 xe bắt xe tấp vô chặn đầu xe hoảng hồn con mẹ nó luôn</t>
+  </si>
+  <si>
+    <t>ếch chết tại miệng</t>
+  </si>
+  <si>
+    <t>gần 2 năm đến sớm nhất để mở cửa lớp lúc về cũng là người là sau cùng để khóa cửa đến giờ ra trường được 3 năm vẫn không muốn vứt chìa khóa của lớp</t>
+  </si>
+  <si>
+    <t>tốt nhất là cần công khai minh bạch là tốt hơn</t>
+  </si>
+  <si>
+    <t>chắc mình là thánh nguy hiểm</t>
+  </si>
+  <si>
+    <t>mong bé sớm được mua lại</t>
+  </si>
+  <si>
+    <t>nhiều tiền để làm gì đạo đức xã hội thế này thì đi học đâm chém chứ học chữ làm gì nữa crying _ face</t>
+  </si>
+  <si>
+    <t>má đớp chanh hùi hụi thế kia mà mặt không nhăn à</t>
+  </si>
+  <si>
+    <t>thanh niên chả thù đời bằng cách này hả ?</t>
+  </si>
+  <si>
+    <t>bán hàng onl riết bán luôn não rồi face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>per nhớ cái bếp huyền thoại của 2 đứa mình he</t>
+  </si>
+  <si>
+    <t>nam chính đẹp nữ chính hơi già nếu nữ chính là 1 diển viên dễ thương thì xem hay hơn nhiều</t>
+  </si>
+  <si>
+    <t>chuyển cảnh nhanh quá làm tao theo không kịp luôn á</t>
+  </si>
+  <si>
+    <t>thật ý nghĩa và hạnh phục cho 2 người họ nhưng đâu đó trong tao vẫn thấy cái gì đó nó tởm lợn vê lờ thinking _ face thinking _ face thinking _ face</t>
+  </si>
+  <si>
+    <t>cu ̃ người it xa ̀ mày lă ́ mày</t>
+  </si>
+  <si>
+    <t>ai cũng kiếm ăn thôi hy vong qua video nay mọi ngươi sống có ý thức hơn đưng xem đồng tiền của minh to quá</t>
+  </si>
+  <si>
+    <t>chửi vậy cũng bình thường mà mọi người cứ làm quá mẹ tao cũng suốt ngày chửi tao tao thấy vui mà</t>
+  </si>
+  <si>
+    <t>tao đề nghị tụi mày chả cái đĩa bay cho con bé đi nghe tới công an mà vào điều tra thì tụi mày mệt cười mĩm</t>
+  </si>
+  <si>
+    <t>thế nên thổ lộ trực tiếp vẫn hơn là tin nhắn</t>
+  </si>
+  <si>
+    <t>từ lúc có vợ nhiều váy mặc để quay video hẳn cười mĩm</t>
+  </si>
+  <si>
+    <t>người việt nam mãi mãi cũng chỉ là bọn hạ cấp so dới nước ngoài vì ý thức như vkl có 100 năm sau thì ý thức vẫn đéo bằng</t>
+  </si>
+  <si>
+    <t>ừ nhìn rợn thật</t>
+  </si>
+  <si>
+    <t>đuma tao đang ở đấy nè vừa đi vừa ôm túi sợ cướp cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>phát hiện mới !</t>
+  </si>
+  <si>
+    <t>ai cũng chỉ muốn cho con tất cả nhưng vì được không có mà thôi có con thì mới biết lòng cha mẹ</t>
+  </si>
+  <si>
+    <t>moẹ ! nghe cái tên đã hấp con mẹ nó dẫn lắm rồi đây này ! đĩ lồn ?</t>
+  </si>
+  <si>
+    <t>per không bao giờ quên được hihi</t>
+  </si>
+  <si>
+    <t>nói câu trước đá câu sau vẫn là sai bét đúng không cả nhà</t>
+  </si>
+  <si>
+    <t>ngu người</t>
+  </si>
+  <si>
+    <t>nói xong còn chả dám ăn nữa face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>cứu tao cảm thấy buồn tao sợ rắn</t>
+  </si>
+  <si>
+    <t>tao thấy tội nghiệp thằng cải</t>
+  </si>
+  <si>
+    <t>anh yêu đứa bướng lắm vì mỗi lần em bướng là anh treo em lên sàn nhà đập mát tay</t>
+  </si>
+  <si>
+    <t>chỉ mới hỏi về người khác giới cái là bị gán là thích bạn đó luôn mí sợ cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>tối mà tắt đèn gặp mặt nó dới cặp mắt nó là tao còn sợ hơn thấy ma</t>
+  </si>
+  <si>
+    <t>công nhận chữ đẹp sneezing _ face</t>
+  </si>
+  <si>
+    <t>áo phông dễ thương quá anh ơi</t>
+  </si>
+  <si>
+    <t>còn nhiều người có cuộc sống khốn khổ hơn ta cười mĩm</t>
+  </si>
+  <si>
+    <t>mèo nhà em thì cho tiền cũng không ra khỏi cửa</t>
+  </si>
+  <si>
+    <t>đào đúng chó cậy chủ cười mĩm</t>
+  </si>
+  <si>
+    <t>cười lăn lộn crush có người yêu rồi</t>
+  </si>
+  <si>
+    <t>cái con đồ chơi đó mua ở đâu nhỉ cười đéo nhặt được mồm face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>nghĩ lại ngày xưa cũng như 2 đứa nhỏ ?</t>
+  </si>
+  <si>
+    <t>hôm nay quên vào đọc bình luận trước ! tính xem con nhện nước bạn khác nhện nước mình như thế nào ! ai ngờ đâu khác xa quá ! d mày mày admin ơi làm hết hồn !</t>
+  </si>
+  <si>
+    <t>má cười ỉa luônn</t>
+  </si>
+  <si>
+    <t>1 năm lật tàu trật đường ray của vận tải đường sắt việt nam !</t>
+  </si>
+  <si>
+    <t>mày làm tao nhớ em gái ghê may sinh nhật con bé rồi mà tao đang đi làm xa nhà không về được expressionless _ face</t>
+  </si>
+  <si>
+    <t>cái câu liếm củi chỏ sao sai được nhỉ</t>
+  </si>
+  <si>
+    <t>chỉ cần nghĩ tới cảnh đó là máu kinh sôi trào như núi lửa face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>tư ̀ hô ̀ i ba ̣ nó â ́ y chuyê ̉ nó trươ ̀ người thi ̀ chă ̉ người co ̀ nó ai đô ́ i xư ̉ tô ́ tao vơ ́ i tao như vâ ̣ y nư ̃ anh cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>đợi chúng nó đang ăn lấy xe cứu hỏa phun nước ôi tao hình dung ra cảnh đó thật tuyệt</t>
+  </si>
+  <si>
+    <t>đã check in thành công và mãi vẫn chưa gặp được người ấy là ai cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>đôi khi thích nói chuyện chỉ vì nói chuyện hop và vì thích nói chuyện chứ thật ra chả phải yêu đương hay thích kiểu trai gái gì</t>
+  </si>
+  <si>
+    <t>mình thấy sợ mấy con rắn quá trời mà cái gì mình sợ là mình hay muốn tiêu diệt -</t>
+  </si>
+  <si>
+    <t>hút ít thôi và hãy chích nhiều hơn neutral _ face</t>
+  </si>
+  <si>
+    <t>em cũng như con chó thôi nếu anh đủ kiên nhẫn thì mọi chuyện đã khác rồi sleepy _ face</t>
+  </si>
+  <si>
+    <t>per khi trong người khó ở thì nên vào đây động lực để nôn</t>
+  </si>
+  <si>
+    <t>ê tao đi nhật chưa được 1 năm mà xem video này làm tao loạn ngôn ngữ ghê thỉnh thoảng phải dừng video ngẫm câu nó nói nghĩa gì</t>
+  </si>
+  <si>
+    <t>về thôi nghỉ ngơi rồi nở rộ tiếp</t>
+  </si>
+  <si>
+    <t>ông mặt trời dễ thương ha</t>
+  </si>
+  <si>
+    <t>vậy nên cứ lờ đi mà sống tiếp</t>
+  </si>
+  <si>
+    <t>vậy vài bữa trời nắng mình không mang quần nằm dưới nắng cho nó nở ra cười mĩm</t>
+  </si>
+  <si>
+    <t>những cử chỉ đẹp làm từ thiện cho người nghèo hay thiếu đến lấy thừa đi đến cho</t>
+  </si>
+  <si>
+    <t>ý tưởng hay face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>cả thế giới thấy hay trừ tao</t>
+  </si>
+  <si>
+    <t>toàn mấy con lợn ký gửi dới xách tay thì đợi đấy mà xếp hạng cười mĩm</t>
+  </si>
+  <si>
+    <t>nhanh vkl mới thấy xong</t>
+  </si>
+  <si>
+    <t>sợ quá đi</t>
+  </si>
+  <si>
+    <t>tao đây chứ còn ai</t>
+  </si>
+  <si>
+    <t>bằng củi thì tao nấu suốt cho tới tận bây giờ còn bằng rơm thì chưa từng cười lăn lộn</t>
+  </si>
+  <si>
+    <t>thấy dòng này quen quen thấy đọc bình luận của ai á haha buồn cười rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>tuy chưa viết hết nhưng tao người khác sẽ hiểu là viết cái gì</t>
+  </si>
+  <si>
+    <t>làm ở đâu cũng vậy cũng có đầy rẫy những khó khăn nhưng trọng hơn là làm cùng những đồng nghiệp như thế nào</t>
+  </si>
+  <si>
+    <t>không nha cậu cười mĩm mình đi bình thường nha cười mĩm</t>
+  </si>
+  <si>
+    <t>bác không ở lại làm tô phở đã upside-down _ face upside-down _ face upside-down _ face</t>
+  </si>
+  <si>
+    <t>per tao thấy mấy ảnh thật đẹp trai</t>
+  </si>
+  <si>
+    <t>do mày ngu đéo ghi chỗ khác cười mĩm</t>
+  </si>
+  <si>
+    <t>phàm việc quan trọng trong thiên hạ cứ về hỏi vợ vợ nói sao cứ làm ngược lại chắc chắc sẽ đúng !</t>
+  </si>
+  <si>
+    <t>à ra là ngứa mắt vì người ta đỗ ông tô mà không phải chả tiền khi nào người ta mất tiền mới hài lòng</t>
+  </si>
+  <si>
+    <t>cái toilet hay nhỉ vào đấy được thoải mái nhìn nhau mà trò chuyện trong lúc ị cười mĩm</t>
+  </si>
+  <si>
+    <t>dễ thương ha</t>
+  </si>
+  <si>
+    <t>chia buồn cùng khổ chủ</t>
+  </si>
+  <si>
+    <t>cao su đó khai thắc làm sao có mủ</t>
+  </si>
+  <si>
+    <t>sao mà có nhiều người ngu quá đậu xe sát đường ray xe lửa còn mấy thg bình luận cũng ngu theo xe lửa chạy theo đường ray mà kêu nó bẻ lái qua chúc xíu bẻ đi đâu được mà bẻ</t>
+  </si>
+  <si>
+    <t>cháu xin lỗi ông trước cháu cũng không có ý gì trêu bai đâu ạ nhưng cháu nhìn móng dài bẩn quá đang ăn mà cháu cũng run run</t>
+  </si>
+  <si>
+    <t>giờ cứ thành lập các tổ an ninh bắt được bao nhiêu chiên free cho các tiệm bia hết là bao tuyệt chủng face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>cay và đắng nghe mấy ông lớn tuổi toàn kêu thế thôi</t>
+  </si>
+  <si>
+    <t>làm video thì ăn bớt chắp chắp như heo lại đang coi nghe ăn phát mất con mẹ nó hứng vô duyên</t>
+  </si>
+  <si>
+    <t>cha mẹ tao còn cãi lộn nhau vì không biết ngày sinh tháng sinh của tao là dương hay âm crying _ face crying _ face</t>
+  </si>
+  <si>
+    <t>người ta đã phải bỏ tiền bỏ sức ra mới có bữa cơm từ thiện nv mà còn có những người vô ý thức như vậy</t>
+  </si>
+  <si>
+    <t>oa thực sự rất tạo động lực và niềm tin cho người khác đó 3 rất thích nụ cười và sự thoải mái tự tin của anh chị 3</t>
+  </si>
+  <si>
+    <t>nhớ đến lại buồn chuyện tình chúng ta chẳng đi được đến đâu cả</t>
+  </si>
+  <si>
+    <t>xuất sắc quá</t>
+  </si>
+  <si>
+    <t>nhà tao vẫn nấu à mà lâu lâu tao về nấu một lần thì không cháy cũng nát</t>
+  </si>
+  <si>
+    <t>thiết kế đẹp quá</t>
+  </si>
+  <si>
+    <t>per không nhận dạng được mặt bả luôn</t>
+  </si>
+  <si>
+    <t>18 tuổi đủ trách nhiệm pháp lý rồi smirking _ face</t>
+  </si>
+  <si>
+    <t>vô học ! pouting _ face pouting _ face pouting _ face tý tuổi tưởng vậy là hay !</t>
+  </si>
+  <si>
+    <t>ai thử rồi cho xin tấm hình cái coi nào</t>
+  </si>
+  <si>
+    <t>bố mẹ thì còng lưng nuôi ăn học vất vả không mua được thì thôi bất hạnh cái gì bất hạnh cái gì</t>
+  </si>
+  <si>
+    <t>đúng là dân miền tây chưa nói đã chửi tục rồi vậy mà cũg đăng lên được ở gần phòng mấy người này đầu mình không yên được</t>
+  </si>
+  <si>
+    <t>nó thả thính xong nó chạy mất</t>
+  </si>
+  <si>
+    <t>bị nó chặn đầu mấy lần khóc sướt mướt luôn mấy con yêu nghiệt này còn dữ hơn chó</t>
+  </si>
+  <si>
+    <t>lò xo chắc giờ không còn nữa rồi</t>
+  </si>
+  <si>
+    <t>chơi cái trò mất dạy cười mĩm</t>
+  </si>
+  <si>
+    <t>trong luâ ̣ tao co ́ khung hi ̀ nh pha ̣ tao bă ́ nó không ghê tơ ̉ mày con qua ́ i na ̀ y qua ́</t>
+  </si>
+  <si>
+    <t>tao chỉ lên ngắm cảnh tí xíu mà mày cũng dìm tao cười mĩm</t>
+  </si>
+  <si>
+    <t>tim vỡ nát</t>
+  </si>
+  <si>
+    <t>có biết giận là gì đâu relieved _ face slightly _ smiling _ face</t>
+  </si>
+  <si>
+    <t>lương này là tính luôn quá trình tham nhũng ăn bớt ăn xén rồi đó ! tụi mày chưa đủ trình đó thì lấy tư cách gì nói người ta nói xạo ?</t>
+  </si>
+  <si>
+    <t>per không lấy được vợ thì có thể đi tâp gym đêt lấy chồng beaming _ face _ with _ smiling _ eyes beaming _ face _ with _ smiling _ eyes</t>
+  </si>
+  <si>
+    <t>đéo thể tin tưởng một ai được</t>
+  </si>
+  <si>
+    <t>thái độ lồi lõm có ngày răng rụng đầy đường đấy cười mĩm</t>
+  </si>
+  <si>
+    <t>thử đụng vô tao coi địt con mẹ mấy thằng vkl cặn bã</t>
+  </si>
+  <si>
+    <t>chắc anh phải đáng yêu lắm luôn ý nhể hugging _ face hugging _ face</t>
+  </si>
+  <si>
+    <t>muốn bảo vệ và chăm sóc người đấy</t>
+  </si>
+  <si>
+    <t>hết sức nguy hiểm và có phần dại dột !</t>
+  </si>
+  <si>
+    <t>ôi thôi cưng quá cười lăn lộn</t>
+  </si>
+  <si>
+    <t>nghe kể mà thèm ạ muốn khóc</t>
+  </si>
+  <si>
+    <t>per vkl xem phải cỡ này đoạn nó nhếch môi bố mày sợ suýt đái ra quần địt con mẹ expressionless _ face</t>
+  </si>
+  <si>
+    <t>tao đôi lúc nghĩ lại thì tao vẫn thấy sợ tao lúc tức giận</t>
+  </si>
+  <si>
+    <t>nó mà là đặc vụ thật thì lại ngớ người face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>các chàng trai của tôi về đến nhà chưa ?</t>
+  </si>
+  <si>
+    <t>liệu có còn tồn tại cô gái nào chấp nhận một thằng vừa nghèo vừa xấu đặc biệt lại còn yếu sinh lý như tôi không</t>
+  </si>
+  <si>
+    <t>per quan tâm per như là 1 đứa em gái thôi đừng có mà ảo tưởng nha</t>
+  </si>
+  <si>
+    <t>vì ghét nhau thôi</t>
+  </si>
+  <si>
+    <t>một con ngựa hoang đúng nghĩa đầy tài năng nhưng đang tiếc là không gặp được huấn luyện viên và những đồng đội hiểu mình</t>
+  </si>
+  <si>
+    <t>hời ơi cưng xĩu</t>
+  </si>
+  <si>
+    <t>tao chỉ chờ đết lúc nó lôi ra xem được cục to như ngón tay không</t>
+  </si>
+  <si>
+    <t>nuôi kiểu đéo gì lại để nó như thế này ? thằng chủ có tâm hồn thối rữa à ?</t>
+  </si>
+  <si>
+    <t>hút cần xong đúng là đời toàn màu hồng em nhỉ nói chậm vkl cười mĩm</t>
+  </si>
+  <si>
+    <t>cục cuối khủng bố vkl vậy cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>per xem xong hình như tao mới bị thêm bệnh tiểu đường</t>
+  </si>
+  <si>
+    <t>mất dạy từ nhỏ đẹp mặt khi bố mẹ nó đang ngồi xem tivi cứ tưởng hay</t>
+  </si>
+  <si>
+    <t>wow sản phẩm tốt ngoài mong đợi luôn á</t>
+  </si>
+  <si>
+    <t>không cướp ở đâu đi cướp ngân hàng của nhà nước rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>đấy thấy chưa con người ta khổ như thế</t>
+  </si>
+  <si>
+    <t>quào hay vậy sao chà chà cười mĩm</t>
+  </si>
+  <si>
+    <t>nuốt được cục tiền đó cũng hay đó y</t>
+  </si>
+  <si>
+    <t>mày nhớ đặt bạn ý cho những lần gọi sau nhé !</t>
+  </si>
+  <si>
+    <t>nhiệt tình cộng ngu dốt bằng phá hoại</t>
+  </si>
+  <si>
+    <t>lỗi tại cái gậy thôi mà rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>hả hả tới giờ ăn hả</t>
+  </si>
+  <si>
+    <t>chưa tỏ tình dới ai bao giờ nhưng tao bức xúc dới những người không tôn trọng quyền riêng tư như vậy</t>
+  </si>
+  <si>
+    <t>mỗi lần nó cắt thì tao không muốn thấy mặt nó một tuần nhìn xấu vkl</t>
+  </si>
+  <si>
+    <t>tao đéo hiểu ai bày ra cái này xàm vkl chết mẹ người ta viết nhạc cho nghe rồi làm video xàm mày thề là không hát theo đi</t>
+  </si>
+  <si>
+    <t>con quỷ này dí bao dai thù dai hơn cả chó tuổi thơ đi ngang qua bầy ngỗng là y như rằng đúng con quỷ đó nó dí tao</t>
+  </si>
+  <si>
+    <t>nhìn là biết đỏ chót rồi</t>
+  </si>
+  <si>
+    <t>đựng túi nilon là chất rồi rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>tan rã hết rồi giờ toàn đánh lẻ thôi loudly _ crying _ face loudly _ crying _ face loudly _ crying _ face</t>
+  </si>
+  <si>
+    <t>ăn học bao nhiêu năm rồi mà vẫn ngu</t>
+  </si>
+  <si>
+    <t>cái vkl mẹ đóng vào mồm thì có ở đấy mà đóng băng</t>
+  </si>
+  <si>
+    <t>khoảnh khắc tao nhận ra tao đã từng rơi vào hoàn cảnh bế tắc này relieved _ face relieved _ face</t>
+  </si>
+  <si>
+    <t>tao nói té 1 cái không dập mề thua gì cũg thua</t>
+  </si>
+  <si>
+    <t>cái này mà đơn giản ? chị à là chị nghĩ đơn giản thôi</t>
+  </si>
+  <si>
+    <t>tao ở thanh hà và nhà tao không quả vải nào hết face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>hãy mang cô ấy sang việt nam ngay</t>
+  </si>
+  <si>
+    <t>cười mĩm thật là kì lạ</t>
+  </si>
+  <si>
+    <t>bả thôi đó gặm đi</t>
+  </si>
+  <si>
+    <t>per tụi bây có thấy nó vô lí vkl không slightly _ smiling _ face</t>
+  </si>
+  <si>
+    <t>họ sáng tạo cải chế cho đời thêm xanh thì bảo họ luồn cúi</t>
+  </si>
+  <si>
+    <t>per thua là hết cà phê để uống</t>
+  </si>
+  <si>
+    <t>đơn giản vậy thôi là đủ red _ heart</t>
+  </si>
+  <si>
+    <t>mày nói thôi mà tao nghĩ cũng thấy buồn rồi cảm thấy buồn</t>
   </si>
   <si>
     <t>đái mẹ ra quần</t>
   </si>
   <si>
-    <t>có ai không nghe thấy nói gì mà toàn xem hình người con gái ấy không face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>đẹp trai ghê slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>dụ đấy đừng tin</t>
-  </si>
-  <si>
-    <t>tán cây hình trái tim thì phải</t>
-  </si>
-  <si>
-    <t>làm việc vất vả mới được miếng ăn mà chúng nó khốn nạn thật</t>
-  </si>
-  <si>
-    <t>dễ thương quá</t>
-  </si>
-  <si>
-    <t>tốt nhất không miễn phí cho những thể loại người như vậy nhắc nhỉ thẳng thắn</t>
-  </si>
-  <si>
-    <t>gần thôi slightly_smiling_face giờ nhìn lại đề thi và không hiểu sao mình ra trường được slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>những đứa như vậy quá hèn</t>
-  </si>
-  <si>
-    <t>hồi xưa làm fanpage được gạ kèo triệu nhưng nhất quyết không bán cảm thấy quyết định đúng đắn nhất trong đời</t>
-  </si>
-  <si>
-    <t>per lúc xưa toàn nấu bằng bếp nay</t>
-  </si>
-  <si>
-    <t>per luôn yêu đời và luôn yêu công việc em nhé</t>
-  </si>
-  <si>
-    <t>ngày trước thì đòi dấn thân vào showbiz giờ lại đòi lấy chồng đại gia đâu ra lắm thế</t>
-  </si>
-  <si>
-    <t>phim này coi lâu lắm ùi mà mỗi năm phải coi lại lần mới đủ thực sự cực kì hay và sâu sắc nhạc phim hay mà diễn cũng rất nhập nữa amir khan đỉnh nhất slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>đần mặt ra nhìn nó như con ngu còn cười theo nó nữa xong bị nó phát hiện</t>
-  </si>
-  <si>
-    <t>bà tôi giờ mất mấy năm rồi giờ lớn lên rồi mà chả tặng được bà món quà nào cả loudly_crying_face loudly_crying_face loudly_crying_face</t>
-  </si>
-  <si>
-    <t>hãm vkl là khi mình đéo ra gì còn đi nói người khác face_with_hand_over_mouth</t>
-  </si>
-  <si>
-    <t>thức như vkl vậy ai cũng như mày thì máy bay quá tải dẫn tới chết chùm thức như vkl vậy mà còn đăng lên</t>
-  </si>
-  <si>
-    <t>ai chửi admin ngu chứng tỏ eq thấp tệ</t>
-  </si>
-  <si>
-    <t>nấu mì tôm là vô địch</t>
-  </si>
-  <si>
-    <t>mấy anh thiệt là nóng bỏng</t>
-  </si>
-  <si>
-    <t>qua chạy xe nẹt nẹt bốc đầu bố ai dám vô</t>
-  </si>
-  <si>
-    <t>chia se cho ai thích thể hiện nè</t>
-  </si>
-  <si>
-    <t>em mày cách mày bao nhiêu tuổi</t>
-  </si>
-  <si>
-    <t>thật chứ thấy bạn nam kia cứu con chó không cần nhìn mặt cũng biết đẹp trai rồi grinning_squinting_face</t>
-  </si>
-  <si>
-    <t>đó là những câu chuyện buồn mà frowning_face</t>
-  </si>
-  <si>
-    <t>diễn còn cứng quá kiểu biết rồi mà còn giả bộ bất ngờ slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>làm người khác thỏa mãn bằng mùi hương của chính bản thân</t>
-  </si>
-  <si>
-    <t>dkm xấu mặt những thằng tập gym vkl tao đéo hiểu sao thằng này nó lại thích đi đường tiểu ngạch là sao</t>
-  </si>
-  <si>
-    <t>chỉ cần cho em nó điểm tựa em nó sẽ không ngán cả thế giới slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>per một lần thôi không có lần thứ hai đâu smiling_face_with_smiling_eyes</t>
-  </si>
-  <si>
-    <t>con đường này chắc dành cho mấy người như tôi</t>
-  </si>
-  <si>
-    <t>đã bị đuổi lần đéo làm gì cũng bị dí</t>
-  </si>
-  <si>
-    <t>lựa chọn cách thức tuyển như thế nào thì tốt quá rồi</t>
-  </si>
-  <si>
-    <t>lùi về sau bước đi ngứa cả con mắt</t>
-  </si>
-  <si>
-    <t>tội bà vợ</t>
-  </si>
-  <si>
-    <t>đẳng cấp slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>nhìn mặt ổng nhẫn nhìn kìa slightly_smiling_face tao chờ sen tao ra thôi lúc đó tao tung hê hết expressionless_face</t>
-  </si>
-  <si>
-    <t>dễ thương face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>đỉnh rồi hiệu ứng tốt slightly_smiling_face ấn tượng vãi_chưởng luôn</t>
-  </si>
-  <si>
-    <t>không có biển cấm dừng đỗ nhưng đỗ thò đầu ngã kia là rất bố láo</t>
-  </si>
-  <si>
-    <t>khi mày tắt điện thoại một buổi sáng và tao nhảy tưng tưng lên slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>vèo cái đã năm confused_face</t>
-  </si>
-  <si>
-    <t>địt con mẹ ngồi chờ đã rồi các tổng đài viên đều bận loudly_crying_face loudly_crying_face loudly_crying_face</t>
-  </si>
-  <si>
-    <t>nó đòi mượn áo thôi mà thằng này kỳ</t>
-  </si>
-  <si>
-    <t>cả ngàn tin nhắn không đổi lại được lần xem frowning_face</t>
-  </si>
-  <si>
-    <t>đúng là tốt quá lai thành lạm dụng face_without_mouth</t>
-  </si>
-  <si>
-    <t>tao cũng thế đang ngồi chơi dới con vợ nó đắp mặt nạ lù lù bước vào xém đái trong quần</t>
-  </si>
-  <si>
-    <t>cũng là mạng người nên các cụ đừng phũ mồm chửi người ta mong anh ấy sớm siêu thoát anh di đà phật</t>
-  </si>
-  <si>
-    <t>đây gọi là nghiệp vật</t>
-  </si>
-  <si>
-    <t>có khi không biết thế nào là tự ái đâu slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>cho thơm miếng nào yêu quá cơ</t>
-  </si>
-  <si>
-    <t>liên quan gì tới mày mời đám cưới chắc gì mày đã đi hỏi hỏi con cặc</t>
-  </si>
-  <si>
-    <t>thích cái câu em không yêu anh nữa smiling_face_with_smiling_eyes smiling_face_with_smiling_eyes</t>
-  </si>
-  <si>
-    <t>cho tao hỏi lúa nó dính mưa vầy ròi thì làm được gì không</t>
-  </si>
-  <si>
-    <t>nghe bạn này nói dễ thương zị</t>
-  </si>
-  <si>
-    <t>làm công an nào không quan trọng quan trọng là có đồng bọn bảo yến nguyễn hạnh rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>đỗ ngay góc cua thế có ngày sứt mõm</t>
-  </si>
-  <si>
-    <t>phát ngán</t>
-  </si>
-  <si>
-    <t>em cute vkl</t>
-  </si>
-  <si>
-    <t>per về nhà mà thể hiện</t>
-  </si>
-  <si>
-    <t>đúng anh có tầm nhìn tâm nữa mình biết</t>
-  </si>
-  <si>
-    <t>củ cà rốt thôi mà cái mẹt đã vây nếu là miếng thịt thì không bít mẹt ra sao nhể face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>cái miệng nói chuyện không có người phụ nữ nào có trời ơi thật là có duyên khiếp quá đi thôi</t>
-  </si>
-  <si>
-    <t>tuyệt vời quá cần nhiều tấm lòng tốt hơn nua thật là nghĩa</t>
-  </si>
-  <si>
-    <t>đi đâu cũng gặp mấy cái thứ</t>
-  </si>
-  <si>
-    <t>per sao bố lại đủ bình tĩnh để xem hết cái trailer này nhỉ sợ vkl</t>
-  </si>
-  <si>
-    <t>sao mà đỉnh dữ vậy trời</t>
-  </si>
-  <si>
-    <t>hai thằng đó sẽ nhau cô về nhà nằm mơ tiếp đi cô bé</t>
-  </si>
-  <si>
-    <t>thương hy vọng sớm có người cưu mang bé</t>
-  </si>
-  <si>
-    <t>mức thu cao nhất đồng vì số liệu nó thể hiện như vậy chứ còn hiệu quả thì mình không biết đúng không face_with_tears_of_joy mỗi lần vô vietcombank là hiểu phải đợi mỏi mòn không như những nh khác</t>
-  </si>
-  <si>
-    <t>cần lắm nhiều vụ ly hôn như thế face_with_tears_of_joy grinning_face grinning_face beaming_face_with_smiling_eyes rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>sời lừa làm sao được tao slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>có bao nhiêu đôi ngôn tình cớ sao lìa xa mình ta frowning_face</t>
-  </si>
-  <si>
-    <t>đây là một câu chuyện buồn không chỉ riêng tao</t>
-  </si>
-  <si>
-    <t>con gái tao thì suốt ngày hêy siri bắt chước mẹ face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>chạy ios cho máu face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>khâm phục quá khâm phục</t>
-  </si>
-  <si>
-    <t>per dạo này béo quá rồi frowning_face</t>
-  </si>
-  <si>
-    <t>mau khoẻ nhé slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>quá đơn rản bạn thân yêu ơi</t>
-  </si>
-  <si>
-    <t>tao học nhân sự đây còn đang lo thất nghiệp đây này</t>
-  </si>
-  <si>
-    <t>cắt cả thắt lưng da của bố để làm ná face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>per hẹn xem phim này nữa nha mày face_with_tongue</t>
-  </si>
-  <si>
-    <t>per vẫn là con mẻ nay hàng họ to quá slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>đỡ mua ngàn tiền sổ rồi kaka</t>
-  </si>
-  <si>
-    <t>tinh trùng đâu lắm thế</t>
-  </si>
-  <si>
-    <t>per giỏi phết đấy mỗi tội nghịch thôi được cái làm từ thiện nhiều</t>
-  </si>
-  <si>
-    <t>ngọt sớt slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>tuổi thơ mình lớp đã cảm nắng anh chàng từ viên phấn vôi</t>
-  </si>
-  <si>
-    <t>nhìn cái bản mặt bà ta mà ghét thay tham vô độ dân mình nhiều nhà dăn ba tỉ còn khó</t>
-  </si>
-  <si>
-    <t>câu hỏi thú vị grinning_face_with_big_eyes grinning_face_with_big_eyes grinning_face_with_big_eyes</t>
-  </si>
-  <si>
-    <t>cô ấy rất tốt nhưng tôi biết thứ nào tốt đều không dành cho mình</t>
-  </si>
-  <si>
-    <t>địt con mẹ xem mãi quay lưng đi chửa được bước lại dừng slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>không gì hơn ngoài tình thân</t>
-  </si>
-  <si>
-    <t>lạ lùng nhỉ cưỡng hôn trong thang máy thì phạt có 200k coi thường phụ nữ bây giờ phạt 10 triệu vì đàn lợn chết</t>
-  </si>
-  <si>
-    <t>thật ra nhiều lúc bị bố mẹ chửi không hiểu vì lí do gì và những câu chửi ấy có những từ không chấp nhận nổi</t>
-  </si>
-  <si>
-    <t>cay mắt lắm mà nhìn nó lại nhớ nhiều kỉ niệm</t>
-  </si>
-  <si>
-    <t>per giảm tốc bình dương tuổi gì dới cái này</t>
-  </si>
-  <si>
-    <t>per cười tức bụng nà vợ grinning_face_with_smiling_eyes</t>
-  </si>
-  <si>
-    <t>what the fuck tao đã làm gì sai frowning_face frowning_face frowning_face</t>
-  </si>
-  <si>
-    <t>tao không sợ đi làm mệt mỏi tao chỉ sợ không có niềm vui dới nó</t>
-  </si>
-  <si>
-    <t>lúc nó điên lên nó chã triệu hồi cả nhà mày ra ấy chứ nhổn</t>
-  </si>
-  <si>
-    <t>còn không đụng vào được tóc của sai mà tự xưng vô địch</t>
-  </si>
-  <si>
-    <t>mất niềm tin vào đàn ông chứ chưa từng mất niềm tin vào tình yêu</t>
-  </si>
-  <si>
-    <t>bọn có tí quan hệ hay thích khoe ngay chị gì quận phó quận còn gọi cả công an chủ tịch phường ra để dằn mặt dân</t>
-  </si>
-  <si>
-    <t>uống hết bia rồi mới về face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>anh thứ cute thế slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>hơi lạ nhỉ phải nhắn lại cho khách chứ grab thế này bị hủy chuyến làm sao</t>
-  </si>
-  <si>
-    <t>chú nghĩ cháu rất giỏi văn và là người có suy nghĩ trưởng thành rồi bouquet rất đáng yêu và tếu giống mấy con giặc nhà chú red_heart</t>
-  </si>
-  <si>
-    <t>đám người lớn văn hóa lùn đẻ ra một đám trẻ vô học bọn mất dạy này là nhà dột từ nóc ấy mà nên đuổi học cho lũ ngu học ấy về để nhà tiếp nối sự vô học của gia đình chúng nó</t>
-  </si>
-  <si>
-    <t>chủ tịch giả làm ăn xin và cái kết đừng bao giờ coi thường người nghèo</t>
-  </si>
-  <si>
-    <t>có ai chỉ tự yêu bản thân như tôi không frowning_face</t>
-  </si>
-  <si>
-    <t>không khoe thì không sao khoe ra may lại còn cái gốc haha beaming_face_with_smiling_eyes</t>
-  </si>
-  <si>
-    <t>nhiệt tình ngu dốt là phải chả giá bằng tiền mặt face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>valentine là lễ tình yêu không phải ngày động dục hãy vì một valentine lành mạnh đi các bạn trẻ upside-down_face upside-down_face</t>
-  </si>
-  <si>
-    <t>thấy anh đấy làm tùm lum mà con nhện vẫn đứng im là tao biết có chiêu rồi định gạt anh</t>
-  </si>
-  <si>
-    <t>có tí rượu vào nhìn đâu cũng thấy mồi nhìn gì cũng ăn được</t>
-  </si>
-  <si>
-    <t>chết luôn tình yêu không phân biệt giới tính tình yêu ơi là tình yêu tao đau khổ vì mày lắm rồi</t>
-  </si>
-  <si>
-    <t>tôi cùng hoàn cảnh dới bạn má tôi củng bệnh và từng ngày từng ngày tôi bên má tôi sợ giây phút má bỏ tôi ra đi và ngày đó củng đến ai còn mẹ hảy quí từng giây từng khắc bên mẹ</t>
-  </si>
-  <si>
-    <t>có mà bữa chạy ngược chiều trên quốc lộ 1a tại có hẻm nhỏ để quẹo tắt chưa kịp quẹo bị anh cảnh sát giao thông xe bắt xe tấp vô chặn đầu xe hoảng hồn con mẹ nó luôn</t>
-  </si>
-  <si>
-    <t>ếch chết tại miệng</t>
-  </si>
-  <si>
-    <t>gần năm đến sớm nhất để mở cửa lớp lúc về cũng là người là sau cùng để khóa cửa đến giờ ra trường được năm vẫn không muốn vứt chìa khóa của lớp</t>
-  </si>
-  <si>
-    <t>tốt nhất là cần công khai minh bạch là tốt hơn</t>
-  </si>
-  <si>
-    <t>chắc mình là thánh nguy hiểm</t>
-  </si>
-  <si>
-    <t>mong bé sớm được mua lại</t>
-  </si>
-  <si>
-    <t>nhiều tiền để làm gì đạo đức xã hội thế này thì đi học đâm chém chứ học chữ làm gì nữa crying_face</t>
-  </si>
-  <si>
-    <t>má đớp chanh hùi hụi thế kia mà mặt không nhăn</t>
-  </si>
-  <si>
-    <t>thanh niên chả thù đời bằng cách này hả</t>
-  </si>
-  <si>
-    <t>bán hàng onl riết bán luôn não rồi face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>per nhớ cái bếp huyền thoại của đứa mình he</t>
-  </si>
-  <si>
-    <t>nam chính đẹp nữ chính hơi già nếu nữ chính là diển viên dễ thương thì xem hay hơn nhiều</t>
-  </si>
-  <si>
-    <t>chuyển cảnh nhanh quá làm tao theo không kịp luôn</t>
-  </si>
-  <si>
-    <t>thật nghĩa và hạnh phục cho người họ nhưng đâu đó trong tao vẫn thấy cái gì đó nó tởm lợn vê lờ thinking_face thinking_face thinking_face</t>
-  </si>
-  <si>
-    <t>cu người it xa mày lă mày</t>
-  </si>
-  <si>
-    <t>ai cũng kiếm ăn thôi hy vong qua video nay mọi ngươi sống có thức hơn đưng xem đồng tiền của minh to quá</t>
-  </si>
-  <si>
-    <t>chửi vậy cũng bình thường mà mọi người cứ làm quá mẹ tao cũng suốt ngày chửi tao tao thấy vui mà</t>
-  </si>
-  <si>
-    <t>tao đề nghị tụi mày chả cái đĩa bay cho con bé đi nghe tới công an mà vào điều tra thì tụi mày mệt slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>thế nên thổ lộ trực tiếp vẫn hơn là tin nhắn</t>
-  </si>
-  <si>
-    <t>từ lúc có vợ nhiều váy mặc để quay video hẳn slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>người việt nam mãi mãi cũng chỉ là bọn hạ cấp so dới nước ngoài vì thức như vkl có 100 năm sau thì thức vẫn đéo bằng</t>
-  </si>
-  <si>
-    <t>nhìn rợn thật</t>
-  </si>
-  <si>
-    <t>đuma tao đang đấy nè vừa đi vừa ôm túi sợ cướp frowning_face</t>
-  </si>
-  <si>
-    <t>phát hiện mới</t>
-  </si>
-  <si>
-    <t>ai cũng chỉ muốn cho con tất cả nhưng vì được không có mà thôi có con thì mới biết lòng cha mẹ</t>
-  </si>
-  <si>
-    <t>moẹ nghe cái tên đã hấp con mẹ nó dẫn lắm rồi đây này đĩ lồn</t>
-  </si>
-  <si>
-    <t>per không bao giờ quên được hihi</t>
-  </si>
-  <si>
-    <t>nói câu trước đá câu sau vẫn là sai bét đúng không cả nhà</t>
-  </si>
-  <si>
-    <t>ngu người</t>
-  </si>
-  <si>
-    <t>nói xong còn chả dám ăn nữa face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>cứu tao frowning_face tao sợ rắn</t>
-  </si>
-  <si>
-    <t>tao thấy tội nghiệp thằng cải</t>
-  </si>
-  <si>
-    <t>anh yêu đứa bướng lắm vì mỗi lần em bướng là anh treo em lên sàn nhà đập mát tay</t>
-  </si>
-  <si>
-    <t>chỉ mới hỏi về người khác giới cái là bị gán là thích bạn đó luôn mí sợ frowning_face</t>
-  </si>
-  <si>
-    <t>tối mà tắt đèn gặp mặt nó dới cặp mắt nó là tao còn sợ hơn thấy ma</t>
-  </si>
-  <si>
-    <t>công nhận chữ đẹp sneezing_face</t>
-  </si>
-  <si>
-    <t>áo phông dễ thương quá anh ơi</t>
-  </si>
-  <si>
-    <t>còn nhiều người có cuộc sống khốn khổ hơn ta slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>mèo nhà em thì cho tiền cũng không ra khỏi cửa</t>
-  </si>
-  <si>
-    <t>đào đúng chó cậy chủ slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>rolling_on_the_floor_laughing crush có người yêu rồi</t>
-  </si>
-  <si>
-    <t>cái con đồ chơi đó mua đâu nhỉ cười đéo nhặt được mồm face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>nghĩ lại ngày xưa cũng như đứa nhỏ</t>
-  </si>
-  <si>
-    <t>hôm nay quên vào đọc bình luận trước tính xem con nhện nước bạn khác nhện nước mình như thế nào ai ngờ đâu khác xa quá mày mày admin ơi làm hết hồn</t>
-  </si>
-  <si>
-    <t>má cười ỉa luônn</t>
-  </si>
-  <si>
-    <t>năm lật tàu trật đường ray của vận tải đường sắt việt nam</t>
-  </si>
-  <si>
-    <t>mày làm tao nhớ em gái ghê may sinh nhật con bé rồi mà tao đang đi làm xa nhà không về được expressionless_face</t>
-  </si>
-  <si>
-    <t>cái câu liếm củi chỏ sao sai được nhỉ</t>
-  </si>
-  <si>
-    <t>chỉ cần nghĩ tới cảnh đó là máu kinh sôi trào như núi lửa face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>tư hô ba nó chuyê nó trươ người thi chă người co nó ai đô xư tô tao vơ tao như vâ nư anh frowning_face</t>
-  </si>
-  <si>
-    <t>đợi chúng nó đang ăn lấy xe cứu hỏa phun nước ôi tao hình dung ra cảnh đó thật tuyệt</t>
-  </si>
-  <si>
-    <t>đã check in thành công và mãi vẫn chưa gặp được người ấy là ai frowning_face</t>
-  </si>
-  <si>
-    <t>đôi khi thích nói chuyện chỉ vì nói chuyện hop và vì thích nói chuyện chứ thật ra chả phải yêu đương hay thích kiểu trai gái gì</t>
-  </si>
-  <si>
-    <t>mình thấy sợ mấy con rắn quá trời mà cái gì mình sợ là mình hay muốn tiêu diệt</t>
-  </si>
-  <si>
-    <t>hút ít thôi và hãy chích nhiều hơn neutral_face</t>
-  </si>
-  <si>
-    <t>em cũng như con chó thôi nếu anh đủ kiên nhẫn thì mọi chuyện đã khác rồi sleepy_face</t>
-  </si>
-  <si>
-    <t>per khi trong người khó thì nên vào đây động lực để nôn</t>
-  </si>
-  <si>
-    <t>tao đi nhật chưa được năm mà xem video này làm tao loạn ngôn ngữ ghê thỉnh thoảng phải dừng video ngẫm câu nó nói nghĩa gì</t>
-  </si>
-  <si>
-    <t>về thôi nghỉ ngơi rồi nở rộ tiếp</t>
-  </si>
-  <si>
-    <t>ông mặt trời dễ thương ha</t>
-  </si>
-  <si>
-    <t>vậy nên cứ lờ đi mà sống tiếp</t>
-  </si>
-  <si>
-    <t>vậy vài bữa trời nắng mình không mang quần nằm dưới nắng cho nó nở ra slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>những cử chỉ đẹp làm từ thiện cho người nghèo hay thiếu đến lấy thừa đi đến cho</t>
-  </si>
-  <si>
-    <t>tưởng hay face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>cả thế giới thấy hay trừ tao</t>
-  </si>
-  <si>
-    <t>toàn mấy con lợn ký gửi dới xách tay thì đợi đấy mà xếp hạng slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>nhanh vkl mới thấy xong</t>
-  </si>
-  <si>
-    <t>sợ quá đi</t>
-  </si>
-  <si>
-    <t>tao đây chứ còn ai</t>
-  </si>
-  <si>
-    <t>bằng củi thì tao nấu suốt cho tới tận bây giờ còn bằng rơm thì chưa từng rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>thấy dòng này quen quen thấy đọc bình luận của ai haha buồn cười rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>tuy chưa viết hết nhưng tao người khác sẽ hiểu là viết cái gì</t>
-  </si>
-  <si>
-    <t>làm đâu cũng vậy cũng có đầy rẫy những khó khăn nhưng trọng hơn là làm cùng những đồng nghiệp như thế nào</t>
-  </si>
-  <si>
-    <t>không nha cậu slightly_smiling_face mình đi bình thường nha slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>bác không lại làm tô phở đã upside-down_face upside-down_face upside-down_face</t>
-  </si>
-  <si>
-    <t>per tao thấy mấy ảnh thật đẹp trai</t>
-  </si>
-  <si>
-    <t>do mày ngu đéo ghi chỗ khác slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>phàm việc quan trọng trong thiên hạ cứ về hỏi vợ vợ nói sao cứ làm ngược lại chắc chắc sẽ đúng</t>
-  </si>
-  <si>
-    <t>ra là ngứa mắt vì người ta đỗ ông tô mà không phải chả tiền khi nào người ta mất tiền mới hài lòng</t>
-  </si>
-  <si>
-    <t>cái toilet hay nhỉ vào đấy được thoải mái nhìn nhau mà trò chuyện trong lúc slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>dễ thương ha</t>
-  </si>
-  <si>
-    <t>chia buồn cùng khổ chủ</t>
-  </si>
-  <si>
-    <t>cao su đó khai thắc làm sao có mủ</t>
-  </si>
-  <si>
-    <t>sao mà có nhiều người ngu quá đậu xe sát đường ray xe lửa còn mấy thg bình luận cũng ngu theo xe lửa chạy theo đường ray mà kêu nó bẻ lái qua chúc xíu bẻ đi đâu được mà bẻ</t>
-  </si>
-  <si>
-    <t>cháu xin lỗi ông trước cháu cũng không có gì trêu bai đâu nhưng cháu nhìn móng dài bẩn quá đang ăn mà cháu cũng run run</t>
-  </si>
-  <si>
-    <t>giờ cứ thành lập các tổ an ninh bắt được bao nhiêu chiên free cho các tiệm bia hết là bao tuyệt chủng face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>cay và đắng nghe mấy ông lớn tuổi toàn kêu thế thôi</t>
-  </si>
-  <si>
-    <t>làm video thì ăn bớt chắp chắp như heo lại đang coi nghe ăn phát mất con mẹ nó hứng vô duyên</t>
-  </si>
-  <si>
-    <t>cha mẹ tao còn cãi lộn nhau vì không biết ngày sinh tháng sinh của tao là dương hay âm crying_face crying_face</t>
-  </si>
-  <si>
-    <t>người ta đã phải bỏ tiền bỏ sức ra mới có bữa cơm từ thiện nv mà còn có những người vô thức như vậy</t>
-  </si>
-  <si>
-    <t>oa thực sự rất tạo động lực và niềm tin cho người khác đó rất thích nụ cười và sự thoải mái tự tin của anh chị</t>
-  </si>
-  <si>
-    <t>nhớ đến lại buồn chuyện tình chúng ta chẳng đi được đến đâu cả</t>
-  </si>
-  <si>
-    <t>xuất sắc quá</t>
-  </si>
-  <si>
-    <t>nhà tao vẫn nấu mà lâu lâu tao về nấu một lần thì không cháy cũng nát</t>
-  </si>
-  <si>
-    <t>thiết kế đẹp quá</t>
-  </si>
-  <si>
-    <t>per không nhận dạng được mặt bả luôn</t>
-  </si>
-  <si>
-    <t>18 tuổi đủ trách nhiệm pháp lý rồi smirking_face</t>
-  </si>
-  <si>
-    <t>vô học pouting_face pouting_face pouting_face tý tuổi tưởng vậy là hay</t>
-  </si>
-  <si>
-    <t>ai thử rồi cho xin tấm hình cái coi nào</t>
-  </si>
-  <si>
-    <t>bố mẹ thì còng lưng nuôi ăn học vất vả không mua được thì thôi bất hạnh cái gì bất hạnh cái gì</t>
-  </si>
-  <si>
-    <t>đúng là dân miền tây chưa nói đã chửi tục rồi vậy mà cũg đăng lên được gần phòng mấy người này đầu mình không yên được</t>
-  </si>
-  <si>
-    <t>nó thả thính xong nó chạy mất</t>
-  </si>
-  <si>
-    <t>bị nó chặn đầu mấy lần khóc sướt mướt luôn mấy con yêu nghiệt này còn dữ hơn chó</t>
-  </si>
-  <si>
-    <t>lò xo chắc giờ không còn nữa rồi</t>
-  </si>
-  <si>
-    <t>chơi cái trò mất dạy slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>trong luâ tao co khung hi nh pha tao bă nó không ghê tơ mày con qua na qua</t>
-  </si>
-  <si>
-    <t>tao chỉ lên ngắm cảnh tí xíu mà mày cũng dìm tao slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>tim vỡ nát</t>
-  </si>
-  <si>
-    <t>có biết giận là gì đâu relieved_face slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>lương này là tính luôn quá trình tham nhũng ăn bớt ăn xén rồi đó tụi mày chưa đủ trình đó thì lấy tư cách gì nói người ta nói xạo</t>
-  </si>
-  <si>
-    <t>per không lấy được vợ thì có thể đi tâp gym đêt lấy chồng beaming_face_with_smiling_eyes beaming_face_with_smiling_eyes</t>
-  </si>
-  <si>
-    <t>đéo thể tin tưởng một ai được</t>
-  </si>
-  <si>
-    <t>thái độ lồi lõm có ngày răng rụng đầy đường đấy slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>thử đụng vô tao coi địt con mẹ mấy thằng vkl cặn bã</t>
-  </si>
-  <si>
-    <t>chắc anh phải đáng yêu lắm luôn nhể hugging_face hugging_face</t>
-  </si>
-  <si>
-    <t>muốn bảo vệ và chăm sóc người đấy</t>
-  </si>
-  <si>
-    <t>hết sức nguy hiểm và có phần dại dột</t>
-  </si>
-  <si>
-    <t>ôi thôi cưng quá rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>nghe kể mà thèm crying_face</t>
-  </si>
-  <si>
-    <t>per vkl xem phải cỡ này đoạn nó nhếch môi bố mày sợ suýt đái ra quần địt con mẹ expressionless_face</t>
-  </si>
-  <si>
-    <t>tao đôi lúc nghĩ lại thì tao vẫn thấy sợ tao lúc tức giận</t>
-  </si>
-  <si>
-    <t>nó mà là đặc vụ thật thì lại ngớ người face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>các chàng trai của tôi về đến nhà chưa</t>
-  </si>
-  <si>
-    <t>liệu có còn tồn tại cô gái nào chấp nhận một thằng vừa nghèo vừa xấu đặc biệt lại còn yếu sinh lý như tôi không</t>
-  </si>
-  <si>
-    <t>per quan tâm per như là đứa em gái thôi đừng có mà ảo tưởng nha</t>
-  </si>
-  <si>
-    <t>vì ghét nhau thôi</t>
-  </si>
-  <si>
-    <t>một con ngựa hoang đúng nghĩa đầy tài năng nhưng đang tiếc là không gặp được huấn luyện viên và những đồng đội hiểu mình</t>
-  </si>
-  <si>
-    <t>hời ơi cưng xĩu</t>
-  </si>
-  <si>
-    <t>tao chỉ chờ đết lúc nó lôi ra xem được cục to như ngón tay không</t>
-  </si>
-  <si>
-    <t>nuôi kiểu đéo gì lại để nó như thế này thằng chủ có tâm hồn thối rữa</t>
-  </si>
-  <si>
-    <t>hút cần xong đúng là đời toàn màu hồng em nhỉ nói chậm vkl slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>cục cuối khủng bố vkl vậy frowning_face</t>
-  </si>
-  <si>
-    <t>per xem xong hình như tao mới bị thêm bệnh tiểu đường</t>
-  </si>
-  <si>
-    <t>mất dạy từ nhỏ đẹp mặt khi bố mẹ nó đang ngồi xem tivi cứ tưởng hay</t>
-  </si>
-  <si>
-    <t>wow sản phẩm tốt ngoài mong đợi luôn</t>
-  </si>
-  <si>
-    <t>không cướp đâu đi cướp ngân hàng của nhà nước rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>đấy thấy chưa con người ta khổ như thế</t>
-  </si>
-  <si>
-    <t>quào hay vậy sao chà chà slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>nuốt được cục tiền đó cũng hay đó</t>
-  </si>
-  <si>
-    <t>mày nhớ đặt bạn cho những lần gọi sau nhé</t>
-  </si>
-  <si>
-    <t>nhiệt tình cộng ngu dốt bằng phá hoại</t>
-  </si>
-  <si>
-    <t>lỗi tại cái gậy thôi mà rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>hả hả tới giờ ăn hả</t>
-  </si>
-  <si>
-    <t>chưa tỏ tình dới ai bao giờ nhưng tao bức xúc dới những người không tôn trọng quyền riêng tư như vậy</t>
-  </si>
-  <si>
-    <t>mỗi lần nó cắt thì tao không muốn thấy mặt nó một tuần nhìn xấu vkl</t>
-  </si>
-  <si>
-    <t>tao đéo hiểu ai bày ra cái này xàm vkl chết mẹ người ta viết nhạc cho nghe rồi làm video xàm mày thề là không hát theo đi</t>
-  </si>
-  <si>
-    <t>con quỷ này dí bao dai thù dai hơn cả chó tuổi thơ đi ngang qua bầy ngỗng là như rằng đúng con quỷ đó nó dí tao</t>
-  </si>
-  <si>
-    <t>nhìn là biết đỏ chót rồi</t>
-  </si>
-  <si>
-    <t>đựng túi nilon là chất rồi rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>tan rã hết rồi giờ toàn đánh lẻ thôi loudly_crying_face loudly_crying_face loudly_crying_face</t>
-  </si>
-  <si>
-    <t>ăn học bao nhiêu năm rồi mà vẫn ngu</t>
-  </si>
-  <si>
-    <t>cái vkl mẹ đóng vào mồm thì có đấy mà đóng băng</t>
-  </si>
-  <si>
-    <t>khoảnh khắc tao nhận ra tao đã từng rơi vào hoàn cảnh bế tắc này relieved_face relieved_face</t>
-  </si>
-  <si>
-    <t>tao nói té cái không dập mề thua gì cũg thua</t>
-  </si>
-  <si>
-    <t>cái này mà đơn giản chị là chị nghĩ đơn giản thôi</t>
-  </si>
-  <si>
-    <t>tao thanh hà và nhà tao không quả vải nào hết face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>hãy mang cô ấy sang việt nam ngay</t>
-  </si>
-  <si>
-    <t>slightly_smiling_face thật là kì lạ</t>
-  </si>
-  <si>
-    <t>bả thôi đó gặm đi</t>
-  </si>
-  <si>
-    <t>per tụi bây có thấy nó vô lí vkl không slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>họ sáng tạo cải chế cho đời thêm xanh thì bảo họ luồn cúi</t>
-  </si>
-  <si>
-    <t>per thua là hết cà phê để uống</t>
-  </si>
-  <si>
-    <t>đơn giản vậy thôi là đủ red_heart</t>
-  </si>
-  <si>
-    <t>mày nói thôi mà tao nghĩ cũng thấy buồn rồi frowning_face</t>
-  </si>
-  <si>
-    <t>còn tôi tự nhủ dù lớp học tự bỏ về hết tôi cũng phải lại học đến tiết cuối cùng hết giờ tôi cứ ngồi đó rồi từ từ bước chậm ra cửa ngoái đầu nhìn lại</t>
+    <t>còn tôi tự nhủ dù lớp học tự ý bỏ về hết tôi cũng phải ở lại học đến tiết cuối cùng hết giờ tôi cứ ngồi đó rồi từ từ bước chậm ra cửa ngoái đầu nhìn lại</t>
   </si>
   <si>
     <t>làm bát phở đã bác ơi</t>
   </si>
   <si>
-    <t>bị ám ảnh hồi bé đi nhổ răng không dám đi nha sĩ nữa frowning_face huhu loudly_crying_face loudly_crying_face</t>
+    <t>bị ám ảnh hồi bé đi nhổ răng không dám đi nha sĩ nữa cảm thấy buồn huhu loudly _ crying _ face loudly _ crying _ face</t>
   </si>
   <si>
     <t>tôi trưởng thành vkl</t>
   </si>
   <si>
-    <t>dậy tắt đồng hồ báo thức kìa giờ này còn ngủ được rolling_on_the_floor_laughing</t>
+    <t>dậy tắt đồng hồ báo thức kìa giờ này còn ngủ được à cười lăn lộn</t>
   </si>
   <si>
     <t>lỗi tại cái cây hay lỗi tại anh tại anh nặng quá nên cây</t>
@@ -1177,7 +1180,7 @@
     <t>đến ông cũng chẳng dám xơi</t>
   </si>
   <si>
-    <t>hiếu nghĩa nhìn cái này nhớ mắc cười má đào chúc quá grinning_face grinning_face grinning_face</t>
+    <t>hiếu nghĩa nhìn cái này nhớ mắc cười má đào chúc quá grinning _ face grinning _ face grinning _ face</t>
   </si>
   <si>
     <t>ôi trời nguy hiểm thế</t>
@@ -1186,61 +1189,61 @@
     <t>tội cho mấy thằng đang xoay tiền mua bánh trung thu cho vợ thằng khác ăn</t>
   </si>
   <si>
-    <t>mấy thằng ngoài bình luận gặp tao tao xé mỏ từng đứa cha mẹ đéo dạy để xã hội dạy nhé còn phèn lắm</t>
+    <t>mấy thằng ở ngoài bình luận gặp tao tao xé mỏ từng đứa cha mẹ đéo dạy để xã hội dạy nhé còn phèn lắm</t>
   </si>
   <si>
     <t>dỡn ngu gặp những tưởng yếu tim đùa kiểu này nó lên cơn lăn đùng ra ăn cho hết</t>
   </si>
   <si>
-    <t>cười ỉa slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>trước em cũng hắt xì cái lưng khụ xuống như ông già đau vkl</t>
-  </si>
-  <si>
-    <t>thôi xong chiếc tô chắc tối nay ăn không ngon nhậu không yên rồi</t>
-  </si>
-  <si>
-    <t>cute smiling_face_with_smiling_eyes smiling_face_with_smiling_eyes smiling_face_with_smiling_eyes smiling_face_with_smiling_eyes smiling_face_with_smiling_eyes</t>
-  </si>
-  <si>
-    <t>bà tao mất rồi frowning_face</t>
-  </si>
-  <si>
-    <t>nó cười mà muốn rụng tim face_with_tears_of_joy broken_heart</t>
-  </si>
-  <si>
-    <t>ui còn chưa kịp đi xem đã rút rồi frowning_face</t>
-  </si>
-  <si>
-    <t>con đĩ mèo mất dạy gặp tao tao đá cái mày dám đánh con thỏ của tao bởi tao ghét vkl</t>
-  </si>
-  <si>
-    <t>em ấy còn viết đẹp hơn mình luôn</t>
-  </si>
-  <si>
-    <t>em chân thành nên em tổn thương</t>
-  </si>
-  <si>
-    <t>địt con mẹ mình tưởng tinh trùng slightly_smiling_face</t>
+    <t>cười ỉa cười mĩm</t>
+  </si>
+  <si>
+    <t>trước em cũng hắt xì 1 cái lưng khụ xuống như ông già đau vkl</t>
+  </si>
+  <si>
+    <t>tao anh g không nó i</t>
+  </si>
+  <si>
+    <t>cute smiling _ face _ with _ smiling _ eyes smiling _ face _ with _ smiling _ eyes smiling _ face _ with _ smiling _ eyes smiling _ face _ with _ smiling _ eyes smiling _ face _ with _ smiling _ eyes</t>
+  </si>
+  <si>
+    <t>bà tao mất rồi cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>nó cười mà muốn rụng tim face _ with _ tears _ of _ joy broken _ heart</t>
+  </si>
+  <si>
+    <t>ui còn chưa kịp đi xem đã rút rồi cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>con đĩ mèo mất dạy ! gặp tao tao đá cái mày dám đánh con thỏ của tao bởi tao ghét vkl</t>
+  </si>
+  <si>
+    <t>em ấy còn viết đẹp hơn mình luôn á</t>
+  </si>
+  <si>
+    <t>em chân thành nên em tổn thương !</t>
+  </si>
+  <si>
+    <t>địt con mẹ mình tưởng tinh trùng cười mĩm</t>
   </si>
   <si>
     <t>béo quá không ai yêu thì về đây em nuôi nè</t>
   </si>
   <si>
-    <t>rút kinh nghiệm năm ngoái face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy thumbs_up thumbs_up thumbs_up</t>
-  </si>
-  <si>
-    <t>biết tình yêu là gì mà ăn rồi cứ đi thả thính đậu má</t>
-  </si>
-  <si>
-    <t>per móc lên tới não slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>sợ vkl nồi tao còn tưởng thằng kia bay ra cơ slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>cũng đúng slightly_smiling_face</t>
+    <t>rút kinh nghiệm năm ngoái face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy thumbs _ up thumbs _ up thumbs _ up</t>
+  </si>
+  <si>
+    <t>đ biết tình yêu là gì mà ăn rồi cứ đi thả thính đậu má</t>
+  </si>
+  <si>
+    <t>per móc lên tới não cười mĩm</t>
+  </si>
+  <si>
+    <t>sợ vkl nồi tao còn tưởng thằng kia bay ra cơ cười mĩm</t>
+  </si>
+  <si>
+    <t>cũng đúng cười mĩm</t>
   </si>
   <si>
     <t>tao nghe nói đứa bé còn nhỏ là không được chụp hình đâu mày</t>
@@ -1249,13 +1252,13 @@
     <t>bị bắt nạt im re hà hiền khô luôn thấy tội nghiệp ai dè tới chừng ha ha ha</t>
   </si>
   <si>
-    <t>mới yêu thôi nhá yêu lâu rồi chán nhau rồi thử xem đường đứa nào đứa đấy đi</t>
+    <t>mới yêu thôi nhá yêu lâu rồi chán nhau rồi á thử xem đường đứa nào đứa đấy đi</t>
   </si>
   <si>
     <t>con bố mẹ nào không dạy được để xã hội dạy cho bố mẹ bất hop tác để làng xóm hop tác</t>
   </si>
   <si>
-    <t>thằng lái tàu quá đáng bẻ lái qua tý có sao đâu slightly_smiling_face</t>
+    <t>thằng lái tàu quá đáng bẻ lái qua tý có sao đâu cười mĩm</t>
   </si>
   <si>
     <t>đừng đùa dới nước bạn</t>
@@ -1282,10 +1285,10 @@
     <t>cầm cái búa ra</t>
   </si>
   <si>
-    <t>per vẽ điện bá vkl em face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>thế không đạt được gì</t>
+    <t>per vẽ ổ điện bá vkl em ạ face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>thế không đạt được gì à</t>
   </si>
   <si>
     <t>cuộc sống tạo ta áp lực</t>
@@ -1294,13 +1297,13 @@
     <t>tư tưởng đột phá đấy chứ</t>
   </si>
   <si>
-    <t>đối dới tình yêu thì thời gian có tác dụng xây đắp chứ không còn là phá huỷ mọi thứ nữa ngưỡng mộ hai ông bà red_heart red_heart red_heart</t>
-  </si>
-  <si>
-    <t>thời đi học tao còn bị bạt tai dới bắt quỳ trên bục giảng luôn tội phá như này thấm gì đâu smiling_face_with_smiling_eyes phụ huynh ngày nay cứ làm quá lên</t>
-  </si>
-  <si>
-    <t>bây giờ thế mới biết tác dụng của con cái crying_face</t>
+    <t>đối dới tình yêu thì thời gian có tác dụng xây đắp chứ không còn là phá huỷ mọi thứ nữa ngưỡng mộ hai ông bà red _ heart red _ heart red _ heart</t>
+  </si>
+  <si>
+    <t>thời đi học tao còn bị bạt tai dới bắt quỳ trên bục giảng luôn tội phá như này thấm gì đâu cười híp mắt phụ huynh ngày nay cứ làm quá lên</t>
+  </si>
+  <si>
+    <t>bây giờ thế mới biết tác dụng của con cái crying _ face</t>
   </si>
   <si>
     <t>đây là thằng chó</t>
@@ -1309,16 +1312,16 @@
     <t>trẻ trâu việt nam thật đáng sợ</t>
   </si>
   <si>
-    <t>ngày đẹp trời là ngày được nghỉ làm đi những nơi mình thích dới người mình thương ăn những món ăn ngon xong về ôm nhau ngủ slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>mày bị ngu hả đĩ chó slightly_smiling_face hết chỗ viết slightly_smiling_face thích viết thì tìm chỗ nào đéo trôi slightly_smiling_face hoặc mua giấy về viết chứ địt mẹ viết rồi lại viết làm tao buồn mày slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>tao dọn quán hát mà muốn diệt sạch mấy con ngu slightly_smiling_face địt ăn sinh nhật mà cỡ nát hết cốc bôi bánh hết lên ghế bàn thì ks đây bôi cả lên loa ti vi trần nhà địt con mẹ cái slightly_smiling_face đồ điện bôi lên để tao dọn tao bị giật chết slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>giáo viên tiếng anh mà không biết tiếng anh</t>
+    <t>ngày đẹp trời là ngày được nghỉ làm đi những nơi mình thích dới người mình thương ăn những món ăn ngon xong về ôm nhau ngủ cười mĩm</t>
+  </si>
+  <si>
+    <t>mày bị ngu hả đĩ chó cười mĩm hết chỗ viết à cười mĩm thích viết thì tìm chỗ nào đéo trôi á cười mĩm hoặc mua giấy về viết chứ địt mẹ viết rồi lại viết làm tao buồn mày cười mĩm</t>
+  </si>
+  <si>
+    <t>tao dọn quán hát mà muốn diệt sạch mấy con ngu cười mĩm địt ăn sinh nhật mà cỡ nát hết cốc bôi bánh hết lên ghế bàn thì ks đây bôi cả lên loa ti vi trần nhà địt con mẹ cái cười mĩm đồ điện bôi lên để tao dọn tao bị giật chết à cười mĩm</t>
+  </si>
+  <si>
+    <t>giáo viên tiếng anh mà không biết tiếng anh ?</t>
   </si>
   <si>
     <t>tao có hiểu đéo gì đau</t>
@@ -1327,94 +1330,94 @@
     <t>sao không xúm lại rỉa lông tụi đầu bếp nhỉ</t>
   </si>
   <si>
-    <t>khang khang thời cùng nhau vui say bây giờ thì khác rồi thân ai nấy lo hở chị hố hố slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>phát hiện nghi vấn đổ vỏ slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>tuổi thơ bất hạnh học mẫu giáo mà cạnh trường học là bầy ngỗng sáng nào tao cũng được chạy bộ tập thể dục nhờ bọn nó</t>
-  </si>
-  <si>
-    <t>rolling_on_the_floor_laughing cướp xong trừ khi ông bơi sông chứ đi đường slightly_smiling_face dới cái bộ dạng đó ai chả thấy slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>không biết ông có nhận con nuôi không nhỉ</t>
-  </si>
-  <si>
-    <t>chút đắng chút chua cay dới chút ngọt ngào đâu đó disappointed_face</t>
+    <t>khang khang 1 thời cùng nhau vui say ! bây giờ thì khác rồi thân ai nấy lo hở chị hố hố cười mĩm</t>
+  </si>
+  <si>
+    <t>phát hiện nghi vấn đổ vỏ cười mĩm</t>
+  </si>
+  <si>
+    <t>tuổi thơ bất hạnh học mẫu giáo mà cạnh trường học là 1 bầy ngỗng sáng nào tao cũng được chạy bộ tập thể dục nhờ bọn nó</t>
+  </si>
+  <si>
+    <t>cười lăn lộn cướp xong trừ khi ông bơi sông chứ đi đường cười mĩm dới cái bộ dạng đó ai chả thấy cười mĩm</t>
+  </si>
+  <si>
+    <t>không biết ông ý có nhận con nuôi không nhỉ ?</t>
+  </si>
+  <si>
+    <t>1 chút đắng chút chua cay dới 1 chút ngọt ngào ở đâu đó disappointed _ face</t>
   </si>
   <si>
     <t>quá đau lòng nhưng chúng ta phải chấp nhận dới điều đó</t>
   </si>
   <si>
-    <t>mở ra mà thấy vậy chắc tao sợ quá mà chết luôn mất slightly_smiling_face</t>
+    <t>mở ra mà thấy vậy chắc tao sợ quá mà chết luôn mất cười mĩm</t>
   </si>
   <si>
     <t>ai làm được cây cầu khó đi này tài quá</t>
   </si>
   <si>
-    <t>tình anh em thật đáng khâm phục smiling_face_with_heart-eyes smiling_face_with_heart-eyes smiling_face_with_heart-eyes</t>
-  </si>
-  <si>
-    <t>xàm bà cố luôn</t>
-  </si>
-  <si>
-    <t>chuẩn bị đón chờ mùa nhiệt miệng lưỡi rolling_on_the_floor_laughing</t>
+    <t>tình anh em thật đáng khâm phục smiling _ face _ with _ heart-eyes smiling _ face _ with _ heart-eyes smiling _ face _ with _ heart-eyes</t>
+  </si>
+  <si>
+    <t>xàm bà cố luôn ?</t>
+  </si>
+  <si>
+    <t>chuẩn bị đón chờ mùa nhiệt miệng lưỡi cười lăn lộn</t>
   </si>
   <si>
     <t>per lần sau hãy hưởng ứng câu chuyện của tao như này này</t>
   </si>
   <si>
-    <t>các cháu giờ lợi hại quá frowning_face</t>
+    <t>các cháu giờ lợi hại quá cảm thấy buồn</t>
   </si>
   <si>
     <t>bất công</t>
   </si>
   <si>
-    <t>chưa bao giờ nghe ngươ ta chửi thề mà đáng yêu đến vậy luôn slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>ghi nguồn vào page slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>mấy đứa thấy mình hiền nó làm tới hà quá đáng lắm luôn</t>
-  </si>
-  <si>
-    <t>mày đếch làm được ghen</t>
-  </si>
-  <si>
-    <t>không đấm vào mặt là may rồi slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>chưa bao giờ bắn trúng thứ gì grinning_squinting_face</t>
-  </si>
-  <si>
-    <t>chuẩn rồi per dù mệt mỏi nhưng vẫn vui slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>thả mẹ tay ra rolling_on_the_floor_laughing đằng nào em kia cũng không sống nổi grinning_face_with_sweat</t>
-  </si>
-  <si>
-    <t>không có bạn trai thì giận ai expressionless_face expressionless_face</t>
-  </si>
-  <si>
-    <t>năm xưa mày cũng ôm gối đứng cửa phòng như này này per rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
+    <t>chưa bao giờ nghe ngươ ̀ i ta chửi thề mà đáng yêu đến vậy luôn cười mĩm</t>
+  </si>
+  <si>
+    <t>ghi nguồn vào page ạ cười mĩm</t>
+  </si>
+  <si>
+    <t>mấy đứa thấy mình hiền nó làm tới hà quá đáng lắm luôn á !</t>
+  </si>
+  <si>
+    <t>mày đếch làm được ghen à</t>
+  </si>
+  <si>
+    <t>không đấm vào mặt là may rồi cười mĩm</t>
+  </si>
+  <si>
+    <t>chưa bao giờ bắn trúng thứ gì grinning _ squinting _ face</t>
+  </si>
+  <si>
+    <t>chuẩn rồi per dù mệt mỏi nhưng vẫn vui cười mĩm</t>
+  </si>
+  <si>
+    <t>thả mẹ tay ra cười lăn lộn đằng nào em kia cũng không sống nổi grinning _ face _ with _ sweat</t>
+  </si>
+  <si>
+    <t>không có bạn trai thì giận ai expressionless _ face expressionless _ face</t>
+  </si>
+  <si>
+    <t>năm xưa mày cũng ôm gối đứng cửa phòng c như này này per rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
   </si>
   <si>
     <t>bác bảo vệ như vkl</t>
   </si>
   <si>
-    <t>đéo hiểu sao ngày sưa tao có thể cầm nó trưen tay đi câu cá flushed_face flushed_face flushed_face nhớ lại vẫn thấy ớn face_with_tears_of_joy</t>
+    <t>đéo hiểu sao ngày sưa tao có thể cầm nó trưen tay đi câu cá flushed _ face flushed _ face flushed _ face nhớ lại vẫn thấy ớn face _ with _ tears _ of _ joy</t>
   </si>
   <si>
     <t>đạp xe xíu rã chân ông này đạp như tay đua xe</t>
   </si>
   <si>
-    <t>thế sai chỗ mẹ nào nữa</t>
-  </si>
-  <si>
-    <t>bọn sống thất đức không có tâm chưa nói tới tầm bảo sao tâm hồn trẻ trí tuệ kém phát triển ảnh hưởng tới thể chất cũng như tâm sinh lí trong tương lai</t>
+    <t>ơ thế sai chỗ mẹ nào nữa ?</t>
+  </si>
+  <si>
+    <t>bọn sống thất đức không có tâm chưa nói tới tầm ! bảo sao tâm hồn trẻ trí tuệ kém phát triển ảnh hưởng tới thể chất cũng như tâm sinh lí trong tương lai</t>
   </si>
   <si>
     <t>cũng nhờ thầy khắt khe uốn nén bỏ thói hư tật xấu bây giờ mỗi lần họp lớp đều nhắc tới thầy và vô cùng kính trọng</t>
@@ -1423,22 +1426,22 @@
     <t>ừm ngồi đất đỡ mỏi châm</t>
   </si>
   <si>
-    <t>có đứa nào vừa coi vừa nuốt nước miếng như tao không</t>
-  </si>
-  <si>
-    <t>tư duy của họ hơn hẳn cái đầu thumbs_up</t>
-  </si>
-  <si>
-    <t>cấp hiền lành ít nói ngồi gần cô bé cái gì cũng nhường cô ấy nhường đến mức nhường luôn tập sách để bà già phải dẫn ra nhà nó lấy lại face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy</t>
+    <t>có đứa nào vừa coi vừa nuốt nước miếng như tao không ?</t>
+  </si>
+  <si>
+    <t>tư duy của họ hơn hẳn 1 cái đầu thumbs _ up</t>
+  </si>
+  <si>
+    <t>cấp 1 hiền lành ít nói ngồi gần 1 cô bé cái gì cũng nhường cô ấy nhường đến mức nhường luôn tập sách để bà già phải dẫn ra nhà nó lấy lại ! face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
   </si>
   <si>
     <t>ngu nhất năm</t>
   </si>
   <si>
-    <t>kiểu em sai rồi anh xin lỗi em đi face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>chỉ mong ông trời sẽ bù đắp cho con cháu của họ sau này pensive_face pensive_face</t>
+    <t>kiểu em sai rồi anh xin lỗi em đi face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>chỉ mong ông trời sẽ bù đắp cho con cháu của họ sau này pensive _ face pensive _ face</t>
   </si>
   <si>
     <t>bà mẹ nó giật mình</t>
@@ -1447,16 +1450,16 @@
     <t>chỉ có bọn óc chó đú đởn mới phàn làn</t>
   </si>
   <si>
-    <t>chưa lần vấn vương thời cấp slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>em đỗ trường đại học mỹ còn hàng trăm thằng đổ em luôn rồi đó em biết không trong đó có anh zany_face</t>
+    <t>chưa 1 lần vấn vương thời cấp 3 cười mĩm</t>
+  </si>
+  <si>
+    <t>em đỗ 6 trường đại học ở mỹ còn hàng trăm thằng đổ em luôn rồi đó em biết không trong đó có anh zany _ face</t>
   </si>
   <si>
     <t>nên xử lý nghiêm khắc</t>
   </si>
   <si>
-    <t>cười đau bụng slightly_smiling_face</t>
+    <t>cười đau bụng cười mĩm</t>
   </si>
   <si>
     <t>nghe cái lời rõ đéo hiểu và cái tên cũg không liên quan</t>
@@ -1465,19 +1468,19 @@
     <t>giỡn ngu kiểu đó người ta bị tim giật mình chết rồi sao giỡn dới mình kiểu đó mình đánh cho vỡ mồm luôn</t>
   </si>
   <si>
-    <t>kiên nhẫn dới con chó chứ chắc gì đã kiên nhẫn dới bố mẹ hay người thân bên cạnh mình</t>
-  </si>
-  <si>
-    <t>cứ tưởng là người yêu slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>đẹp trai quá</t>
+    <t>kiên nhẫn dới 1 con chó chứ chắc gì đã kiên nhẫn dới bố mẹ hay người thân bên cạnh mình</t>
+  </si>
+  <si>
+    <t>cứ tưởng là người yêu cười mĩm</t>
+  </si>
+  <si>
+    <t>đẹp trai quá à</t>
   </si>
   <si>
     <t>làm ơn đi đừng bám theo tao nua được không</t>
   </si>
   <si>
-    <t>ai may mắn thì có vị ngọt còn ai thiếu may mắn thì họ chỉ toàn gặp những vị cay vị đắng của đời slightly_smiling_face</t>
+    <t>ai may mắn thì có vị ngọt còn ai thiếu may mắn thì họ chỉ toàn gặp những vị cay vị đắng của đời cười mĩm</t>
   </si>
   <si>
     <t>thằng đoạn cuối mặc áo hồng đang định gải đít nhưng vì thấy rắn nên anh ấy đã hết ngứa</t>
@@ -1486,7 +1489,7 @@
     <t>eo ôi thằng nhóc áo xanh cuối cùng sao này lớn lên chắc là sói công an haha</t>
   </si>
   <si>
-    <t>đã dâm tâm còn biến thái nauseated_face</t>
+    <t>đã dâm tâm còn biến thái nauseated _ face</t>
   </si>
   <si>
     <t>rất ghét bọn trộm cắp</t>
@@ -1498,16 +1501,16 @@
     <t>per coi chừng bị vậy nha chưa haha</t>
   </si>
   <si>
-    <t>đây là đâu cái này là như nào thế</t>
+    <t>đây là đâu ? cái này là như nào thế ?</t>
   </si>
   <si>
     <t>tuổi thơ thật đáng yêu chỉ có người lớn dẫn sai đường các em thôi</t>
   </si>
   <si>
-    <t>thua cả người ta disappointed_face</t>
-  </si>
-  <si>
-    <t>per nhơ cai thời sinh viên tro slightly_smiling_face</t>
+    <t>thua cả người ta disappointed _ face</t>
+  </si>
+  <si>
+    <t>per nhơ cai thời sinh viên ở tro cười mĩm</t>
   </si>
   <si>
     <t>ông lão cục súc</t>
@@ -1516,13 +1519,13 @@
     <t>công khai và phạt thật nặng đuổi học cấm thi 10 năm</t>
   </si>
   <si>
-    <t>cưng ghê red_heart</t>
-  </si>
-  <si>
-    <t>vị nước mắt dù cảm xúc như nào thì khi có nó cũng thật đáng nhớ</t>
-  </si>
-  <si>
-    <t>mặt nhỏ dễ thương vkl slightly_smiling_face</t>
+    <t>cưng ghê red _ heart</t>
+  </si>
+  <si>
+    <t>vị nước mắt dù cảm xúc như nào thì khi có nó cũng thật đáng nhớ !</t>
+  </si>
+  <si>
+    <t>mặt nhỏ dễ thương vkl cười mĩm</t>
   </si>
   <si>
     <t>thích mấy đứa này</t>
@@ -1531,13 +1534,13 @@
     <t>đầu độc trẻ em mà sử như vậy là nhẹ quá chuyển công tác ra khỏi nghành</t>
   </si>
   <si>
-    <t>mày xinh thế tao ốm tí đã xấu hoắc</t>
+    <t>mày xinh thế ? tao ốm tí đã xấu hoắc</t>
   </si>
   <si>
     <t>xịt nước là ướt rồi</t>
   </si>
   <si>
-    <t>hy vọng sẽ mau tìm được anh người yêu thật tốt để năm sau có một gia đình như vậy red_heart red_heart</t>
+    <t>hy vọng sẽ mau tìm được anh người yêu thật tốt để 5 năm sau có một gia đình như vậy red _ heart red _ heart</t>
   </si>
   <si>
     <t>mới ngày nào bidv còn đứng nhất mà hài vậy</t>
@@ -1546,19 +1549,19 @@
     <t>chỉ là bạn chưa biết yêu đúng cách thôi</t>
   </si>
   <si>
-    <t>cái ảnh giống hệt mình slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>thời gian thấm nhuần yêu thương nếu đủ kiên nhẫn thì hạnh phúc sẽ đến bên không sợ sệt beaming_face_with_smiling_eyes</t>
+    <t>cái ảnh giống hệt mình cười mĩm</t>
+  </si>
+  <si>
+    <t>thời gian thấm nhuần yêu thương nếu đủ kiên nhẫn thì hạnh phúc sẽ đến bên không sợ sệt beaming _ face _ with _ smiling _ eyes</t>
   </si>
   <si>
     <t>nhất định sẽ làm được</t>
   </si>
   <si>
-    <t>câu nói ngu thì chết chứ bệnh tật gì tao thấy chính xác rồi đây địt con mẹ thiệt hại tài sản còn bị phạt nữa ngu vkl</t>
-  </si>
-  <si>
-    <t>dòm sợ thiệt zipper-mouth_face</t>
+    <t>câu nói ngu thì chết chứ bệnh tật gì tao thấy chính xác rồi đây ! địt con mẹ thiệt hại tài sản còn bị phạt nữa ngu vkl</t>
+  </si>
+  <si>
+    <t>dòm sợ thiệt zipper-mouth _ face</t>
   </si>
   <si>
     <t>nhìn một cái rồi thôi chuyện của những năm trước</t>
@@ -1567,46 +1570,46 @@
     <t>khiêp vkl</t>
   </si>
   <si>
-    <t>bạn trai người khác không bao giờ làm tao thất vọng slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>per slightly_smiling_face tao cười không biết chỗ nín luôn</t>
+    <t>bạn trai người khác không bao giờ làm tao thất vọng cười mĩm</t>
+  </si>
+  <si>
+    <t>per cười mĩm tao cười không biết chỗ nín luôn</t>
   </si>
   <si>
     <t>là do mày quá ảo tưởng</t>
   </si>
   <si>
-    <t>dễ thương ghê slightly_smiling_face nói như mấy ông ngồi nhậu trong bàn đúng không đúng chưa vui rầu slightly_smiling_face</t>
+    <t>dễ thương ghê cười mĩm nói y như mấy ông ngồi nhậu trong bàn v đúng không đúng chưa vui rầu cười mĩm</t>
   </si>
   <si>
     <t>mình rất rất muốn đi nhưng trong túi không còn xu mẹ nào vân kiều ơi</t>
   </si>
   <si>
-    <t>khi bạn muốn lầy và cũng có người lầy cùng bạn slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>hay vkl ra ai đi qua kiểu gì cũng phải đọc và mỉm cười đánh mạnh vào tâm lý slightly_smiling_face</t>
+    <t>khi bạn muốn lầy và cũng có người lầy cùng bạn cười mĩm</t>
+  </si>
+  <si>
+    <t>hay vkl ra ai đi qua kiểu gì cũng phải đọc và mỉm cười đánh mạnh vào tâm lý cười mĩm</t>
   </si>
   <si>
     <t>thời chúng ta đồ hỏng thì mua mới còn thời ông bà đồ hỏng thì đem đi sửa đó là lý do vì sao tình yêu của họ luôn bền lâu</t>
   </si>
   <si>
-    <t>may tao ăn gà chụp hình bình luận lại cho mày thèm chơi</t>
+    <t>may tao ăn gà chụp hình bình luận lại cho mày thèm chơi ?</t>
   </si>
   <si>
     <t>làm bạn dới mấy thể loại này cũng nhục cả người</t>
   </si>
   <si>
-    <t>thật vậy luôn sao per</t>
-  </si>
-  <si>
-    <t>tao vừa về xong thề là mẹ nhà ngủ còn sướng hơn đông đéo thể nhích nổi toàn ngắm người</t>
-  </si>
-  <si>
-    <t>ức chế lắm cụ đi trong phố cổ còn chưa dừng hẳn đã bị gõ cửa xua đi</t>
-  </si>
-  <si>
-    <t>tội nghiệp có rất nhiều em nông thôn bị như vậy crying_face</t>
+    <t>thật vậy luôn sao per ?</t>
+  </si>
+  <si>
+    <t>tao vừa về xong thề là ở mẹ nhà ngủ còn sướng hơn đông đéo thể nhích nổi toàn ngắm người ?</t>
+  </si>
+  <si>
+    <t>ức chế lắm cụ ạ đi trong phố cổ còn chưa dừng hẳn đã bị gõ cửa xua đi</t>
+  </si>
+  <si>
+    <t>tội nghiệp có rất nhiều em ở nông thôn bị như vậy crying _ face</t>
   </si>
   <si>
     <t>chuẩn luôn áp lực công việc cũng không bằng mối quan hệ dới đồng nghiệp</t>
@@ -1618,25 +1621,25 @@
     <t>rụng cả răng khi xem không nhặt được mồm ha ha</t>
   </si>
   <si>
-    <t>con giáo viên ngu vài đứa lớn đầu tập làm người lớn nhưng bất thành dạy ra lũ học sinh mất dậy lũ đầu bò</t>
-  </si>
-  <si>
-    <t>những video như này chỉ khiến cho các cô gái càng thêm ảo tưởng về tình yêu thôi slightly_smiling_face ngưngảotưởng</t>
+    <t>1 con giáo viên ngu vài đứa lớn đầu tập làm người lớn nhưng bất thành dạy ra 1 lũ học sinh mất dậy 1 lũ đầu bò</t>
+  </si>
+  <si>
+    <t>những video như này chỉ khiến cho các cô gái càng thêm ảo tưởng về tình yêu thôi cười mĩm ngưngảotưởng</t>
   </si>
   <si>
     <t>mong là có bảo hiểm</t>
   </si>
   <si>
-    <t>nếu ngày per theo thằng khác và per cũng có bỏ bạn mà đi thôi huhu</t>
-  </si>
-  <si>
-    <t>cay đắng ngọt bùi nhưng cay đắng thì thường nhiều hơn slightly_smiling_face</t>
+    <t>nếu 1 ngày per theo thằng khác và per cũng có bỏ bạn mà đi thôi huhu</t>
+  </si>
+  <si>
+    <t>cay đắng ngọt bùi nhưng cay đắng thì thường nhiều hơn cười mĩm</t>
   </si>
   <si>
     <t>tình yêu cha mẹ dành cho con cái là vô điều kiện mình đã khóc</t>
   </si>
   <si>
-    <t>đúng rồi kiên trì thêm một chút nữa đi rolling_on_the_floor_laughing</t>
+    <t>đúng rồi kiên trì thêm một chút nữa đi ! cười lăn lộn</t>
   </si>
   <si>
     <t>hên crush nay ăn chơi lành mạnh</t>
@@ -1648,16 +1651,16 @@
     <t>cách xử lý thông minh</t>
   </si>
   <si>
-    <t>per may cấm chọc tao cười nhé địt con mẹ tao mà không pass probation là do mày đấy slightly_smiling_face</t>
+    <t>per may cấm chọc tao cười nhé địt con mẹ tao mà không pass probation là do mày đấy cười mĩm</t>
   </si>
   <si>
     <t>trong phim này thấy cái thằng anh hùng đạp xa đạp phế vkl</t>
   </si>
   <si>
-    <t>per sắp bị đuổi khỏi trường rồi nhé winking_face winking_face</t>
-  </si>
-  <si>
-    <t>không biết luôn</t>
+    <t>per sắp bị đuổi khỏi trường rồi nhé winking _ face winking _ face</t>
+  </si>
+  <si>
+    <t>không biết luôn á</t>
   </si>
   <si>
     <t>tao tát cho bây giờ đấy</t>
@@ -1669,49 +1672,49 @@
     <t>điều tồi tệ nhất là kiểm tra code trên giấy</t>
   </si>
   <si>
-    <t>thay vì gà chuyển sang ăn lợn tao cũng thế nên món khoái khẩu là gà chuyển sang sườn mày</t>
+    <t>thay vì gà chuyển sang ăn lợn tao cũng thế nên món khoái khẩu là gà chuyển sang sườn mày ạ</t>
   </si>
   <si>
     <t>ta sao khúc cuối cậu bé xịt nói chuyện hoa làm gì vậy</t>
   </si>
   <si>
-    <t>tao được theo mẹ ra đây những lần rolling_on_the_floor_laughing uống no nước biển đs phải công nhận nói chuyện biển đục vkl face_with_rolling_eyes</t>
-  </si>
-  <si>
-    <t>địt con mẹ mùi thế slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>per của anh tao chứ anh mày</t>
+    <t>tao được theo mẹ ra đây những 3 lần cười lăn lộn uống no nước biển đs phải công nhận nói chuyện biển đục vkl face _ with _ rolling _ eyes</t>
+  </si>
+  <si>
+    <t>địt con mẹ mùi thế cười mĩm</t>
+  </si>
+  <si>
+    <t>per của anh tao chứ anh mày à ?</t>
   </si>
   <si>
     <t>mày tưởng ai cũng khùng giống mày hả lo xo dau</t>
   </si>
   <si>
-    <t>per nam dân trí thấp thức như ruồi là hop lí</t>
+    <t>per nam dân trí thấp ý thức như ruồi là hop lí</t>
   </si>
   <si>
     <t>họ không cho ta là vì họ không có gì hihi</t>
   </si>
   <si>
-    <t>14 năm sau tau sẽ là ông già cô đơn</t>
-  </si>
-  <si>
-    <t>gì thế này này là kiến thức đó hả</t>
-  </si>
-  <si>
-    <t>địt con mẹ xem đi xem lại vẫn đéo thể nhịn được cười rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>trong lần tao được mẹ cho về quê ngoại nó nhìn tao tao nhìn nó và địt con mẹ đầu tao chôm bôm cđ đó dữ vkl sao nó không đi thi đai đen cấp quốc gia con mẹ nó luôn đi chứ võ công cao cường như vậy mà vùng qê hẻo lánh thì thật là phí của giời</t>
+    <t>14 2 năm sau tau sẽ là ông già cô đơn</t>
+  </si>
+  <si>
+    <t>gì thế này ? này là kiến thức đó hả ?</t>
+  </si>
+  <si>
+    <t>địt con mẹ xem đi xem lại vẫn đéo thể nhịn được cười cười lăn lộn</t>
+  </si>
+  <si>
+    <t>trong 1 lần tao được mẹ cho về quê ngoại nó nhìn tao - tao nhìn nó - và địt con mẹ đầu tao chôm bôm cđ đó dữ vkl ! sao nó không đi thi đai đen cấp quốc gia con mẹ nó luôn đi chứ võ công cao cường như vậy mà ở vùng qê hẻo lánh thì thật là phí của giời !</t>
   </si>
   <si>
     <t>còn nhỏ mà đã như thế này lớn lên ai chịu được yêu chết đi được</t>
   </si>
   <si>
-    <t>cậu lái xe nói chưa thấy sai gì đỗ dưới đường chứ có đỗ vào phòng khách nhà mình đâu mà kêu</t>
-  </si>
-  <si>
-    <t>khóc không chịu được luôn và mình cũng sẽ làm được nếu phải đánh đổi tính mạng cho cô con gái bé nhỏ của gia đình mình</t>
+    <t>cậu lái xe nói chưa thấy sai gì ? đỗ dưới đường chứ có đỗ vào phòng khách nhà mình đâu mà kêu</t>
+  </si>
+  <si>
+    <t>khóc không chịu được luôn và mình cũng sẽ làm được nếu phải đánh đổi tính mạng cho 2 cô con gái bé nhỏ của gia đình mình</t>
   </si>
   <si>
     <t>per bảo nó nói chuyện đi nhưng không chỉ nhìn thôi</t>
@@ -1720,7 +1723,7 @@
     <t>per đợi rụng răng rồi anh tặng quà cho em luôn háy ha</t>
   </si>
   <si>
-    <t>per giờ đi ra chỗ ăn phở cũng khó đi bộ cũng chả chen được</t>
+    <t>per giờ đi ra chỗ ăn phở cũng khó đi bộ cũng chả chen được ?</t>
   </si>
   <si>
     <t>mấy thằng cứt rảnh</t>
@@ -1729,22 +1732,22 @@
     <t>giun xào tỏi đỉa xào lăn cứt nấu đông hỉ mũi rang cơm trộn dới đờm tởm vkl</t>
   </si>
   <si>
-    <t>và từ đó bà cụ sống trong hạnh phúc slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>video mờ thế còn xác minh được thế còn lão per đến giờ vẫn im lặng là sao slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>lúc nhỏ mẹ nấu cơm bằng bếp củi tao thì không biết gì thấy lửa tắt thì chụm vô mẹ ra quánh cho trận vì nồi cơm khét nghẹt expressionless_face</t>
-  </si>
-  <si>
-    <t>địt con mẹ thằng mập mặt thoả mãn vkl lần đầu tiên thấy con gái</t>
+    <t>và từ đó bà cụ sống trong hạnh phúc cười mĩm</t>
+  </si>
+  <si>
+    <t>video mờ thế còn xác minh được thế còn lão per đến giờ vẫn im lặng là sao ? slightly _ smiling _ face</t>
+  </si>
+  <si>
+    <t>lúc nhỏ mẹ nấu cơm bằng bếp củi tao thì không biết gì thấy lửa tắt thì chụm vô mẹ ra quánh cho trận vì nồi cơm khét nghẹt expressionless _ face</t>
+  </si>
+  <si>
+    <t>địt con mẹ thằng mập mặt thoả mãn vkl lần đầu tiên thấy con gái à</t>
   </si>
   <si>
     <t>địt con mẹ lùi xuống rồi viết suy ra là bạn để mất người ta là do bạn ngu chứ đéo phải đổ thừa cho cái gì</t>
   </si>
   <si>
-    <t>bình dị vậy thôi mà sao mãi tao chưa tìm được hic</t>
+    <t>bình dị vậy thôi mà sao mãi tao chưa tìm được ? hic</t>
   </si>
   <si>
     <t>tao thấy tai nạn giao thông là tao nói dới mẹ con chạy ra đó để tối lên ti vi mẹ tao chửi sấp mặt luôn</t>
@@ -1762,10 +1765,10 @@
     <t>bày đặt viết trên cát khắc luôn vào đá cho tạt thoải mái</t>
   </si>
   <si>
-    <t>bài nhạc đầu tiên là nhạc phim gì nhỉ mình quên tên phim rồi xin hỏi có ai biết không</t>
-  </si>
-  <si>
-    <t>hn đéo có đâu nhé dăm ba cái thứ đường vớ vẩn slightly_smiling_face</t>
+    <t>bài nhạc đầu tiên là nhạc phim gì nhỉ ? mình quên tên phim rồi xin hỏi có ai biết không ạ</t>
+  </si>
+  <si>
+    <t>hn đéo có đâu nhé dăm ba cái thứ y đường vớ vẩn cười mĩm</t>
   </si>
   <si>
     <t>các cháu thật tốt hãy thương yêu mọi người và cả loài vật nhé may mắn và niềm vui sẽ đến dới các cháu</t>
@@ -1780,10 +1783,10 @@
     <t>nghe mãi mà vẫn thấy hay</t>
   </si>
   <si>
-    <t>mèo nhà tao cũng từng đi lạc vì bị chó rượt tưởng mất rồi sau mấy tháng thấy nó trở về nhà mừng vkl beaming_face_with_smiling_eyes</t>
-  </si>
-  <si>
-    <t>vẫn xinh đẹp dịu dàng trong mắt tao face_with_tears_of_joy</t>
+    <t>mèo nhà tao cũng từng đi lạc vì bị chó rượt tưởng mất rồi sau mấy tháng thấy nó trở về nhà mừng vkl beaming _ face _ with _ smiling _ eyes</t>
+  </si>
+  <si>
+    <t>vẫn xinh đẹp dịu dàng trong mắt tao face _ with _ tears _ of _ joy</t>
   </si>
   <si>
     <t>thấy per hất mông thằng đó bay hài lòng dễ sợ</t>
@@ -1792,19 +1795,19 @@
     <t>anh sau đó không còn là anh nữa</t>
   </si>
   <si>
-    <t>cả đời mình chỉ ước có 500 triệu chả nợ ngân hàng cái xe để chạy kiếm ăn sad_but_relieved_face sad_but_relieved_face sad_but_relieved_face</t>
+    <t>cả đời mình chỉ ước có 500 triệu chả nợ ngân hàng cái xe để chạy kiếm ăn sad _ but _ relieved _ face sad _ but _ relieved _ face sad _ but _ relieved _ face</t>
   </si>
   <si>
     <t>cố gắng chứ từ bỏ con cặc gì</t>
   </si>
   <si>
-    <t>ký ức thời nhớ</t>
-  </si>
-  <si>
-    <t>gia tộc bất hạnh rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>vì lợi nhuận con người ta có thể độc ác dới nhau như vậy sao</t>
+    <t>ký ức 1 thời nhớ</t>
+  </si>
+  <si>
+    <t>gia tộc bất hạnh cười lăn lộn</t>
+  </si>
+  <si>
+    <t>vì lợi nhuận con người ta có thể độc ác dới nhau như vậy sao ?</t>
   </si>
   <si>
     <t>thương anh bạn kia quá</t>
@@ -1813,7 +1816,7 @@
     <t>nhìn muốn tè ra quần rồi</t>
   </si>
   <si>
-    <t>nhìn dơ vkl địt con mẹ rolling_on_the_floor_laughing</t>
+    <t>nhìn dơ vkl địt con mẹ cười lăn lộn</t>
   </si>
   <si>
     <t>tao cũng ăn hại nhưng chưa bao giờ ăn hại đến nỗi phí phạm thế</t>
@@ -1831,34 +1834,34 @@
     <t>chả có gì hay ho vô bổ</t>
   </si>
   <si>
-    <t>nhìn giống hai anh đang tỉnh tò dới nhau ghê mình là hủ đừng ném đá nha grinning_face_with_sweat grinning_face_with_sweat grinning_face_with_sweat</t>
-  </si>
-  <si>
-    <t>buồn nhỉ sleeping_face sleeping_face sleeping_face</t>
+    <t>nhìn giống hai anh đang tỉnh tò dới nhau ghê mình là hủ đừng ném đá nha grinning _ face _ with _ sweat grinning _ face _ with _ sweat grinning _ face _ with _ sweat</t>
+  </si>
+  <si>
+    <t>buồn nhỉ sleeping _ face sleeping _ face sleeping _ face</t>
   </si>
   <si>
     <t>toàn lũ thất đức</t>
   </si>
   <si>
-    <t>per thế đéo nào mình chơi dới toàn gái mà tính vẫn giống con trai</t>
-  </si>
-  <si>
-    <t>cuộc sống của mình đừng hỏi kiến người khác</t>
+    <t>per thế đéo nào mình chơi dới toàn gái mà tính vẫn giống con trai _</t>
+  </si>
+  <si>
+    <t>cuộc sống của mình đừng hỏi ý kiến người khác</t>
   </si>
   <si>
     <t>mấy thằng mặt địt chim chưa mọc đủ lông mà lông đã ăn vào tận não chúng mày rồi địt con mẹ chúng mày</t>
   </si>
   <si>
-    <t>bà về nơi phương xa mất rồi nhưng dới tớ bà là người dễ thương nhất trên đời chỉ muốn ngả vào lòng ngoại nghe kể về những câu chuyện cổ face_blowing_a_kiss</t>
-  </si>
-  <si>
-    <t>vui vẻ chút lạc quan chút cho đời thêm vui cũng là một cách face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>hài vkl slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>còn gì đau đớn hơn cảnh này frowning_face</t>
+    <t>bạn à mày ớ g nó g i ờ</t>
+  </si>
+  <si>
+    <t>vui vẻ chút lạc quan chút cho đời thêm vui cũng là một cách face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>hài vkl cười mĩm</t>
+  </si>
+  <si>
+    <t>còn gì đau đớn hơn cảnh này cảm thấy buồn</t>
   </si>
   <si>
     <t>yep chính tao đi vệ sinh thôi cũng phải đảo qua mà giờ thì người ta sắp đi lấy chồng rồi</t>
@@ -1882,43 +1885,43 @@
     <t>hahah thú vị ghê hen</t>
   </si>
   <si>
-    <t>ngã nhìn cũng thấy yêu rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>hồi bé tôi cũng bị chửi cả ngày từ sáng chí tối nhưng không phải bố tôi mà là bà nội tôi</t>
-  </si>
-  <si>
-    <t>cung quá</t>
-  </si>
-  <si>
-    <t>mày xinh ghê vậy slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>thương các bác quá vất vả 10 năm trời mà bị như vậy loudly_crying_face</t>
-  </si>
-  <si>
-    <t>hên là đụng nhầm người chứ đụng trúng cái là rụng trứng cả bày cả lũ</t>
+    <t>ngã nhìn cũng thấy yêu rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>hồi bé tôi cũng bị chửi cả ngày từ sáng chí tối ! nhưng không phải bố tôi mà là bà nội tôi !</t>
+  </si>
+  <si>
+    <t>cung quá à</t>
+  </si>
+  <si>
+    <t>mày xinh ghê vậy cười mĩm</t>
+  </si>
+  <si>
+    <t>thương các bác quá vất vả 10 năm trời mà bị như vậy loudly _ crying _ face</t>
+  </si>
+  <si>
+    <t>hên là đụng nhầm người chứ đụng trúng cái là rụng trứng cả bày cả lũ -</t>
   </si>
   <si>
     <t>đau ghê</t>
   </si>
   <si>
-    <t>khúc mắc cười đoạn nào vậy expressionless_face</t>
+    <t>khúc mắc cười đoạn nào vậy expressionless _ face</t>
   </si>
   <si>
     <t>đếm không hết nên nó vương nó vkl ấy mà</t>
   </si>
   <si>
-    <t>hình này thấy từ sáng đến giờ trên mấy page rồi expressionless_face expressionless_face</t>
-  </si>
-  <si>
-    <t>mày ăn xong thì cút luôn dùm nha slightly_smiling_face</t>
+    <t>1 hình này thấy từ sáng đến giờ trên mấy page rồi expressionless _ face expressionless _ face</t>
+  </si>
+  <si>
+    <t>mày ăn xong thì cút luôn dùm nha slightly _ smiling _ face</t>
   </si>
   <si>
     <t>thôi thì giả tạo đến phút chót cho tròn chữ hãm vkl</t>
   </si>
   <si>
-    <t>con bé bị quơ trúng nhìn đẹp như búp bê ấy</t>
+    <t>con bé bị quơ trúng nhìn đẹp như búp bê ấy 3</t>
   </si>
   <si>
     <t>bạn không có lỗi sinh ra trong nghèo khó nhưng nếu chết trong nghèo khó thì đó là lỗi của bạn</t>
@@ -1927,13 +1930,13 @@
     <t>lỗi tổng hop đường bộ mà nằm sát đường sắt còn ông tài xế thì đậu xe cẩu thả</t>
   </si>
   <si>
-    <t>phim kinh dị vào cái trời âm unamused_face</t>
-  </si>
-  <si>
-    <t>crush đéo bị thịt nhé slightly_smiling_face nó cũng vkl vì tội chảnh chóa</t>
-  </si>
-  <si>
-    <t>tự nhiên coi tới khúc thằng bé kéo hết bạn bè tới chụp hình tao buồn cười vkl ông kia nghĩ thôi chết mẹ rồi kiểu này tối mới lau xong face_with_tears_of_joy</t>
+    <t>phim kinh dị vào cái trời âm u unamused _ face</t>
+  </si>
+  <si>
+    <t>crush đéo bị thịt nhé cười mĩm nó cũng ế vkl vì tội chảnh chóa</t>
+  </si>
+  <si>
+    <t>tự nhiên coi tới khúc thằng bé kéo hết bạn bè tới chụp hình tao buồn cười vkl ! ông kia nghĩ ! thôi chết mẹ rồi ! kiểu này tối mới lau xong face _ with _ tears _ of _ joy</t>
   </si>
   <si>
     <t>bếp dầu thời bao cấp cùng thời đôt đèn dầu</t>
@@ -1945,49 +1948,49 @@
     <t>bọn trẻ trung quốc thời nay ăn gì mà cao thế nhỉ</t>
   </si>
   <si>
-    <t>fa lâu năm có biết 14 hay 15 là ngày gì đâu chỉ biết là ngày đi làm về và rất mệt</t>
+    <t>fa lâu năm có biết 14 2 hay 15 2 là ngày gì đâu chỉ biết là ngày đi làm về và rất mệt</t>
   </si>
   <si>
     <t>kinh quá đau lắm đây mà nhìn nổi hết da gà ra</t>
   </si>
   <si>
-    <t>tao đang thắc mắc là thằng kia đéo hỏi thằng per thinking_face</t>
-  </si>
-  <si>
-    <t>nhìn đoạn ổng tránh nó cắn mà nhảy tưng tưng rất chị là điệu nghệ và mang trong đó cả sự tấu hài nữa rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>đừng để râu móng tay cắt gọn gàng nếu mà thơm nữa thì điểm chuẩn mẹ rồi</t>
-  </si>
-  <si>
-    <t>hôm nào đi học về cũng phải đi qua nhà nuôi lũ này đỉnh dốc đi học về tới chân dốc thôi là nghe lũ quỷ đó đứng đầu dốc đón đường bọn tao rồi đéo đạp xe lên dốc nổi dắt xe lên dốc mà muốn vứt mẹ cái xe đạp để chạy lấy thân cho rồi frowning_face</t>
-  </si>
-  <si>
-    <t>công ty nào nhận bạn không quan trọng quan trọng là ai giới thiệu bạn vào công ty rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing rolling_on_the_floor_laughing</t>
-  </si>
-  <si>
-    <t>đến cả khi nó nói thích mình phút sau nó lại nói chỉ trêu mệt mỏi</t>
-  </si>
-  <si>
-    <t>ây da thời</t>
-  </si>
-  <si>
-    <t>đỡ mua cuốn sổ ngàn slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>chỉ dân đen là khổ thôi chả trách được họ khi cố gắng đi tìm may mắn nơi chùa chiền</t>
+    <t>tao đang thắc mắc là 2 thằng kia đéo hỏi thằng per à thinking _ face</t>
+  </si>
+  <si>
+    <t>nhìn đoạn ổng tránh nó cắn mà nhảy tưng tưng rất chị là điệu nghệ và mang trong đó cả sự tấu hài nữa rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>đừng để râu móng tay cắt gọn gàng nếu mà thơm nữa thì 8 điểm chuẩn mẹ rồi</t>
+  </si>
+  <si>
+    <t>hôm nào đi học về cũng phải đi qua nhà nuôi lũ này ở đỉnh dốc đi học về tới chân dốc thôi là nghe lũ quỷ đó đứng đầu dốc đón đường bọn tao rồi đéo đạp xe lên dốc nổi dắt xe lên dốc mà muốn vứt mẹ cái xe đạp để chạy lấy thân cho rồi cảm thấy buồn</t>
+  </si>
+  <si>
+    <t>công ty nào nhận bạn không quan trọng quan trọng là ai giới thiệu bạn vào công ty rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing rolling _ on _ the _ floor _ laughing</t>
+  </si>
+  <si>
+    <t>đến cả khi nó nói thích mình 1 phút sau nó lại nói chỉ trêu mệt mỏi</t>
+  </si>
+  <si>
+    <t>ây da 1 thời</t>
+  </si>
+  <si>
+    <t>đỡ mua cuốn sổ 5 ngàn cười mĩm</t>
+  </si>
+  <si>
+    <t>chỉ dân đen là khổ thôi chả trách được họ khi cố gắng đi tìm may mắn ở nơi chùa chiền</t>
   </si>
   <si>
     <t>còn gì đau hơn</t>
   </si>
   <si>
-    <t>nó vẫn luôn hiện hữu xung quanh chúng ta hãy dùng tình yêu thương đó và cho đi red_heart</t>
-  </si>
-  <si>
-    <t>idiots phim hay nhất mọi thời đại</t>
-  </si>
-  <si>
-    <t>đi xa nó bắt cóc chết mẹ mày slightly_smiling_face</t>
+    <t>nó vẫn luôn hiện hữu xung quanh chúng ta hãy dùng tình yêu thương đó và cho đi red _ heart</t>
+  </si>
+  <si>
+    <t>3 idiots ! phim hay nhất mọi thời đại</t>
+  </si>
+  <si>
+    <t>đi xa nó bắt cóc chết mẹ mày cười mĩm</t>
   </si>
   <si>
     <t>ôi địt con mẹ bọn súc vật</t>
@@ -1999,7 +2002,7 @@
     <t>đúng là yêu tới đầu bạc răng long</t>
   </si>
   <si>
-    <t>cho thằng khác ăn ốc bắt bố đổ vỏ rolling_on_the_floor_laughing</t>
+    <t>cho thằng khác ăn ốc bắt bố đổ vỏ à rolling _ on _ the _ floor _ laughing</t>
   </si>
   <si>
     <t>động lực là tình yêu gia đình là nơi để về hihi</t>
@@ -2008,7 +2011,7 @@
     <t>đã thất tình xem phim này khóc cả đêm mất thôi mới đề mô mà đã khóc thút thít rồi chắc xem hết thì không biết pai làm sao</t>
   </si>
   <si>
-    <t>và sau mùa vải tàn dư còn lại là những nốt mụn relieved_face relieved_face relieved_face</t>
+    <t>và sau mùa vải tàn dư còn lại là những nốt mụn relieved _ face relieved _ face relieved _ face</t>
   </si>
   <si>
     <t>mỗi lần coi lại sởn gai ốc</t>
@@ -2017,19 +2020,19 @@
     <t>con người giỏi nhỉ</t>
   </si>
   <si>
-    <t>sến đụ dễ sợ expressionless_face</t>
-  </si>
-  <si>
-    <t>tao muốn mèo nhà tao cũng tìm về được như này loudly_crying_face</t>
+    <t>sến đụ dễ sợ expressionless _ face</t>
+  </si>
+  <si>
+    <t>tao muốn mèo nhà tao cũng tìm về được như này loudly _ crying _ face</t>
   </si>
   <si>
     <t>rảnh vkl kiếm cái gì làm đi</t>
   </si>
   <si>
-    <t>per chuẩn gọi công an cho lành cãi cộ chẳng may sửng cồ lên không kìm được phang vào xe nó lại mệt</t>
-  </si>
-  <si>
-    <t>khi nào mình già rồi cũng như nha per kkkkkkkkkk</t>
+    <t>per chuẩn gọi công an cho lành cãi cộ chẳng may sửng cồ lên không kìm được phang vào xe nó lại mệt ?</t>
+  </si>
+  <si>
+    <t>khi nào mình già rồi cũng như v nha per kkkkkkkkkk</t>
   </si>
   <si>
     <t>vkl gần nhà</t>
@@ -2038,7 +2041,7 @@
     <t>cứu em nó dới</t>
   </si>
   <si>
-    <t>đụ mẹ ngu slightly_smiling_face có thiếu chỗ đéo nào cho mày viết không</t>
+    <t>đụ mẹ ngu à cười mĩm có thiếu chỗ đéo nào cho mày viết không</t>
   </si>
   <si>
     <t>tao thì sợ nhất lúc nó mới cắt tóc</t>
@@ -2050,19 +2053,19 @@
     <t>nhìn rợn vkl</t>
   </si>
   <si>
-    <t>đúng là ổng có vợ rồi có khác không cần lấy áo làm tóc nữa mà có hẳn váy để mặc rồi face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>haha slightly_smiling_face nãy giờ mấy tiếng rồi mà các bác vẫn còn căng slightly_smiling_face</t>
-  </si>
-  <si>
-    <t>ngưỡng mộ ông bà ông bà đáng yêu ghê</t>
-  </si>
-  <si>
-    <t>thằng nào kiểu như này tao cho cạch mặt đéo thích nữa face_with_tears_of_joy face_with_tears_of_joy</t>
-  </si>
-  <si>
-    <t>slightly_smiling_face mọi người bị sao thế thích chơi dới mấy đứa như vầy nè slightly_smiling_face hài hước đi chung cười sấp mặt luôn slightly_smiling_face nhây nhây vầy mới vui chớ tự nhiên chửi con nhỏ thấy tội nghiệp pouting_face</t>
+    <t>đúng là ổng có vợ rồi có khác không cần lấy áo làm tóc nữa mà có hẳn váy để mặc rồi face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>haha cười mĩm nãy giờ mấy tiếng rồi mà các bác vẫn còn căng cười mĩm</t>
+  </si>
+  <si>
+    <t>ngưỡng mộ ông bà á ông bà đáng yêu ghê</t>
+  </si>
+  <si>
+    <t>thằng nào kiểu như này tao cho cạch mặt ! đéo thích nữa face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
+  </si>
+  <si>
+    <t>cười mĩm mọi người bị sao thế ? thích chơi dới mấy đứa như vầy nè cười mĩm hài hước đi chung cười sấp mặt luôn cười mĩm nhây nhây vầy mới vui chớ ? tự nhiên chửi con nhỏ thấy tội nghiệp pouting _ face</t>
   </si>
   <si>
     <t>giờ cắt bộ móng đi cái tay vẫn cứ bị phế khó mà phục hồi được</t>
@@ -2074,13 +2077,13 @@
     <t>có vậy ông mới có công chuyện làm mà kiếm tiền còn la lối chửi mắng có tội nghe con</t>
   </si>
   <si>
-    <t>phim gì thánh nữ nào cho biết cái chủ đề dới</t>
+    <t>phim gì z thánh nữ nào cho biết cái chủ đề dới !</t>
   </si>
   <si>
     <t>địt mẹ đời tao</t>
   </si>
   <si>
-    <t>áp dụng việt nam cơ mà chỉ có ăn cái đầu mày</t>
+    <t>áp dụng ở việt nam cơ mà chỉ có ăn cái đầu mày</t>
   </si>
   <si>
     <t>nó cứ sai sai thế nào ấy</t>
@@ -2092,7 +2095,7 @@
     <t>chắc là uncrush thôi bố mẹ thì còng lưng ra làm cho con đi học</t>
   </si>
   <si>
-    <t>chúng mày cứ cười địt con mẹ may gần đấy có biến lại thấy anh ấy trong bộ cảnh phục thì lại tung hô quả nằm vùng quá đẳng cấp face_with_tears_of_joy face_with_tears_of_joy face_with_tears_of_joy</t>
+    <t>chúng mày cứ cười địt con mẹ may gần đấy có biến lại thấy anh ấy trong bộ cảnh phục thì lại tung hô quả nằm vùng quá đẳng cấp face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy face _ with _ tears _ of _ joy</t>
   </si>
   <si>
     <t>gửi nhầm video mình hát chế cho nó nghe</t>
@@ -2101,16 +2104,16 @@
     <t>tự nhiên mình xem và mỉm cười theo</t>
   </si>
   <si>
-    <t>bạn ăn cơm chưa</t>
-  </si>
-  <si>
-    <t>lúc thì cuốc đất cổ ra không có giun mà câu cá unamused_face</t>
+    <t>bạn ăn cơm chưa ?</t>
+  </si>
+  <si>
+    <t>lúc thì cuốc đất è cổ ra không có giun mà câu cá unamused _ face</t>
   </si>
   <si>
     <t>các bác dẫn crush qua cây sữa nay mà hứng nước đái ve nha haha</t>
   </si>
   <si>
-    <t>vợ chồng rồi mà trong sáng như này chỉ có trong phim nhỉ face_with_tears_of_joy</t>
+    <t>vợ chồng rồi mà trong sáng như này chỉ có trong phim nhỉ face _ with _ tears _ of _ joy</t>
   </si>
   <si>
     <t>beep này vào binh dương dùng xuất</t>
@@ -2502,7 +2505,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -2558,7 +2561,7 @@
         <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2572,7 +2575,7 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -2614,7 +2617,7 @@
         <v>18</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -2642,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="D12" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -2852,7 +2855,7 @@
         <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -2880,7 +2883,7 @@
         <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:4">
@@ -2908,7 +2911,7 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -3160,7 +3163,7 @@
         <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:4">
@@ -3174,7 +3177,7 @@
         <v>58</v>
       </c>
       <c r="D50" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="51" spans="1:4">
@@ -3272,7 +3275,7 @@
         <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="58" spans="1:4">
@@ -3398,7 +3401,7 @@
         <v>74</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="67" spans="1:4">
@@ -3412,7 +3415,7 @@
         <v>75</v>
       </c>
       <c r="D67" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -3454,7 +3457,7 @@
         <v>78</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="71" spans="1:4">
@@ -3594,7 +3597,7 @@
         <v>88</v>
       </c>
       <c r="D80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="81" spans="1:4">
@@ -3650,7 +3653,7 @@
         <v>92</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="85" spans="1:4">
@@ -3678,7 +3681,7 @@
         <v>94</v>
       </c>
       <c r="D86" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="87" spans="1:4">
@@ -3692,7 +3695,7 @@
         <v>95</v>
       </c>
       <c r="D87" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="1:4">
@@ -3804,7 +3807,7 @@
         <v>103</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="1:4">
@@ -3832,7 +3835,7 @@
         <v>105</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="98" spans="1:4">
@@ -3860,7 +3863,7 @@
         <v>107</v>
       </c>
       <c r="D99" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -3916,7 +3919,7 @@
         <v>111</v>
       </c>
       <c r="D103" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="104" spans="1:4">
@@ -4056,7 +4059,7 @@
         <v>121</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="114" spans="1:4">
@@ -4140,7 +4143,7 @@
         <v>127</v>
       </c>
       <c r="D119" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="120" spans="1:4">
@@ -4168,7 +4171,7 @@
         <v>129</v>
       </c>
       <c r="D121" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="122" spans="1:4">
@@ -4378,7 +4381,7 @@
         <v>144</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="137" spans="1:4">
@@ -4672,7 +4675,7 @@
         <v>165</v>
       </c>
       <c r="D157" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -4700,7 +4703,7 @@
         <v>167</v>
       </c>
       <c r="D159" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -4742,7 +4745,7 @@
         <v>170</v>
       </c>
       <c r="D162" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -4812,7 +4815,7 @@
         <v>175</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -4840,7 +4843,7 @@
         <v>177</v>
       </c>
       <c r="D169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -4938,7 +4941,7 @@
         <v>184</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -5008,7 +5011,7 @@
         <v>189</v>
       </c>
       <c r="D181" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -5036,7 +5039,7 @@
         <v>191</v>
       </c>
       <c r="D183" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -5064,7 +5067,7 @@
         <v>193</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -5148,7 +5151,7 @@
         <v>199</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -5288,7 +5291,7 @@
         <v>209</v>
       </c>
       <c r="D201" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -5302,7 +5305,7 @@
         <v>210</v>
       </c>
       <c r="D202" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -5316,7 +5319,7 @@
         <v>211</v>
       </c>
       <c r="D203" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -5484,7 +5487,7 @@
         <v>223</v>
       </c>
       <c r="D215" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -5554,7 +5557,7 @@
         <v>228</v>
       </c>
       <c r="D220" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -5568,7 +5571,7 @@
         <v>229</v>
       </c>
       <c r="D221" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -5582,7 +5585,7 @@
         <v>230</v>
       </c>
       <c r="D222" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -5596,7 +5599,7 @@
         <v>231</v>
       </c>
       <c r="D223" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -5666,7 +5669,7 @@
         <v>236</v>
       </c>
       <c r="D228" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -5694,7 +5697,7 @@
         <v>238</v>
       </c>
       <c r="D230" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -5862,7 +5865,7 @@
         <v>250</v>
       </c>
       <c r="D242" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -5960,7 +5963,7 @@
         <v>257</v>
       </c>
       <c r="D249" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -6044,7 +6047,7 @@
         <v>263</v>
       </c>
       <c r="D255" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="256" spans="1:4">
@@ -6058,7 +6061,7 @@
         <v>264</v>
       </c>
       <c r="D256" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="257" spans="1:4">
@@ -6100,7 +6103,7 @@
         <v>267</v>
       </c>
       <c r="D259" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="260" spans="1:4">
@@ -6114,7 +6117,7 @@
         <v>268</v>
       </c>
       <c r="D260" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="261" spans="1:4">
@@ -6268,7 +6271,7 @@
         <v>279</v>
       </c>
       <c r="D271" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="272" spans="1:4">
@@ -6478,7 +6481,7 @@
         <v>294</v>
       </c>
       <c r="D286" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="287" spans="1:4">
@@ -6562,7 +6565,7 @@
         <v>300</v>
       </c>
       <c r="D292" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="293" spans="1:4">
@@ -6674,7 +6677,7 @@
         <v>308</v>
       </c>
       <c r="D300" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="301" spans="1:4">
@@ -6688,7 +6691,7 @@
         <v>309</v>
       </c>
       <c r="D301" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="302" spans="1:4">
@@ -6730,7 +6733,7 @@
         <v>312</v>
       </c>
       <c r="D304" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="305" spans="1:4">
@@ -6842,7 +6845,7 @@
         <v>320</v>
       </c>
       <c r="D312" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:4">
@@ -6870,7 +6873,7 @@
         <v>322</v>
       </c>
       <c r="D314" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="315" spans="1:4">
@@ -6884,7 +6887,7 @@
         <v>323</v>
       </c>
       <c r="D315" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="316" spans="1:4">
@@ -7080,7 +7083,7 @@
         <v>337</v>
       </c>
       <c r="D329" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="330" spans="1:4">
@@ -7136,7 +7139,7 @@
         <v>341</v>
       </c>
       <c r="D333" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="334" spans="1:4">
@@ -7220,7 +7223,7 @@
         <v>347</v>
       </c>
       <c r="D339" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="340" spans="1:4">
@@ -7262,7 +7265,7 @@
         <v>350</v>
       </c>
       <c r="D342" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="343" spans="1:4">
@@ -7388,7 +7391,7 @@
         <v>359</v>
       </c>
       <c r="D351" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:4">
@@ -7444,7 +7447,7 @@
         <v>363</v>
       </c>
       <c r="D355" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="356" spans="1:4">
@@ -7584,7 +7587,7 @@
         <v>373</v>
       </c>
       <c r="D365" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="366" spans="1:4">
@@ -7598,7 +7601,7 @@
         <v>374</v>
       </c>
       <c r="D366" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="367" spans="1:4">
@@ -7665,7 +7668,7 @@
         <v>6</v>
       </c>
       <c r="C371" t="s">
-        <v>94</v>
+        <v>379</v>
       </c>
       <c r="D371" t="s">
         <v>6</v>
@@ -7679,7 +7682,7 @@
         <v>3</v>
       </c>
       <c r="C372" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D372" t="s">
         <v>3</v>
@@ -7693,7 +7696,7 @@
         <v>8</v>
       </c>
       <c r="C373" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D373" t="s">
         <v>8</v>
@@ -7707,10 +7710,10 @@
         <v>6</v>
       </c>
       <c r="C374" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="D374" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="375" spans="1:4">
@@ -7721,10 +7724,10 @@
         <v>9</v>
       </c>
       <c r="C375" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="D375" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="376" spans="1:4">
@@ -7735,10 +7738,10 @@
         <v>8</v>
       </c>
       <c r="C376" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="D376" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="377" spans="1:4">
@@ -7749,7 +7752,7 @@
         <v>5</v>
       </c>
       <c r="C377" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="D377" t="s">
         <v>8</v>
@@ -7763,7 +7766,7 @@
         <v>3</v>
       </c>
       <c r="C378" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="D378" t="s">
         <v>3</v>
@@ -7777,7 +7780,7 @@
         <v>6</v>
       </c>
       <c r="C379" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="D379" t="s">
         <v>8</v>
@@ -7791,7 +7794,7 @@
         <v>9</v>
       </c>
       <c r="C380" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D380" t="s">
         <v>9</v>
@@ -7805,7 +7808,7 @@
         <v>6</v>
       </c>
       <c r="C381" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="D381" t="s">
         <v>6</v>
@@ -7819,7 +7822,7 @@
         <v>3</v>
       </c>
       <c r="C382" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="D382" t="s">
         <v>7</v>
@@ -7833,7 +7836,7 @@
         <v>7</v>
       </c>
       <c r="C383" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D383" t="s">
         <v>5</v>
@@ -7847,10 +7850,10 @@
         <v>5</v>
       </c>
       <c r="C384" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="D384" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="385" spans="1:4">
@@ -7861,7 +7864,7 @@
         <v>9</v>
       </c>
       <c r="C385" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D385" t="s">
         <v>9</v>
@@ -7875,7 +7878,7 @@
         <v>3</v>
       </c>
       <c r="C386" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D386" t="s">
         <v>3</v>
@@ -7889,10 +7892,10 @@
         <v>3</v>
       </c>
       <c r="C387" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D387" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="388" spans="1:4">
@@ -7903,7 +7906,7 @@
         <v>9</v>
       </c>
       <c r="C388" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D388" t="s">
         <v>9</v>
@@ -7917,7 +7920,7 @@
         <v>3</v>
       </c>
       <c r="C389" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D389" t="s">
         <v>3</v>
@@ -7931,7 +7934,7 @@
         <v>9</v>
       </c>
       <c r="C390" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D390" t="s">
         <v>9</v>
@@ -7945,7 +7948,7 @@
         <v>3</v>
       </c>
       <c r="C391" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D391" t="s">
         <v>3</v>
@@ -7959,7 +7962,7 @@
         <v>7</v>
       </c>
       <c r="C392" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D392" t="s">
         <v>7</v>
@@ -7973,7 +7976,7 @@
         <v>4</v>
       </c>
       <c r="C393" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="D393" t="s">
         <v>9</v>
@@ -7987,7 +7990,7 @@
         <v>3</v>
       </c>
       <c r="C394" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D394" t="s">
         <v>3</v>
@@ -8001,7 +8004,7 @@
         <v>5</v>
       </c>
       <c r="C395" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="D395" t="s">
         <v>6</v>
@@ -8015,10 +8018,10 @@
         <v>8</v>
       </c>
       <c r="C396" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="D396" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="397" spans="1:4">
@@ -8029,7 +8032,7 @@
         <v>9</v>
       </c>
       <c r="C397" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D397" t="s">
         <v>9</v>
@@ -8043,10 +8046,10 @@
         <v>5</v>
       </c>
       <c r="C398" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D398" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="399" spans="1:4">
@@ -8057,7 +8060,7 @@
         <v>6</v>
       </c>
       <c r="C399" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D399" t="s">
         <v>8</v>
@@ -8071,7 +8074,7 @@
         <v>6</v>
       </c>
       <c r="C400" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="D400" t="s">
         <v>5</v>
@@ -8085,7 +8088,7 @@
         <v>9</v>
       </c>
       <c r="C401" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="D401" t="s">
         <v>9</v>
@@ -8099,7 +8102,7 @@
         <v>8</v>
       </c>
       <c r="C402" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="D402" t="s">
         <v>8</v>
@@ -8113,10 +8116,10 @@
         <v>9</v>
       </c>
       <c r="C403" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D403" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="404" spans="1:4">
@@ -8127,7 +8130,7 @@
         <v>8</v>
       </c>
       <c r="C404" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="D404" t="s">
         <v>8</v>
@@ -8141,7 +8144,7 @@
         <v>5</v>
       </c>
       <c r="C405" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="D405" t="s">
         <v>5</v>
@@ -8155,7 +8158,7 @@
         <v>5</v>
       </c>
       <c r="C406" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D406" t="s">
         <v>5</v>
@@ -8169,10 +8172,10 @@
         <v>8</v>
       </c>
       <c r="C407" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D407" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="408" spans="1:4">
@@ -8183,7 +8186,7 @@
         <v>3</v>
       </c>
       <c r="C408" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D408" t="s">
         <v>5</v>
@@ -8197,10 +8200,10 @@
         <v>9</v>
       </c>
       <c r="C409" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D409" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="410" spans="1:4">
@@ -8211,7 +8214,7 @@
         <v>8</v>
       </c>
       <c r="C410" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="D410" t="s">
         <v>8</v>
@@ -8225,7 +8228,7 @@
         <v>5</v>
       </c>
       <c r="C411" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D411" t="s">
         <v>9</v>
@@ -8239,7 +8242,7 @@
         <v>4</v>
       </c>
       <c r="C412" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D412" t="s">
         <v>8</v>
@@ -8253,7 +8256,7 @@
         <v>5</v>
       </c>
       <c r="C413" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D413" t="s">
         <v>9</v>
@@ -8267,7 +8270,7 @@
         <v>8</v>
       </c>
       <c r="C414" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="D414" t="s">
         <v>8</v>
@@ -8281,7 +8284,7 @@
         <v>4</v>
       </c>
       <c r="C415" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D415" t="s">
         <v>9</v>
@@ -8295,10 +8298,10 @@
         <v>4</v>
       </c>
       <c r="C416" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="D416" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="417" spans="1:4">
@@ -8309,7 +8312,7 @@
         <v>6</v>
       </c>
       <c r="C417" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D417" t="s">
         <v>9</v>
@@ -8323,7 +8326,7 @@
         <v>4</v>
       </c>
       <c r="C418" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D418" t="s">
         <v>5</v>
@@ -8337,7 +8340,7 @@
         <v>9</v>
       </c>
       <c r="C419" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D419" t="s">
         <v>9</v>
@@ -8351,7 +8354,7 @@
         <v>5</v>
       </c>
       <c r="C420" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D420" t="s">
         <v>5</v>
@@ -8365,7 +8368,7 @@
         <v>3</v>
       </c>
       <c r="C421" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="D421" t="s">
         <v>3</v>
@@ -8379,7 +8382,7 @@
         <v>5</v>
       </c>
       <c r="C422" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D422" t="s">
         <v>5</v>
@@ -8393,10 +8396,10 @@
         <v>6</v>
       </c>
       <c r="C423" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D423" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="424" spans="1:4">
@@ -8407,7 +8410,7 @@
         <v>9</v>
       </c>
       <c r="C424" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="D424" t="s">
         <v>9</v>
@@ -8421,10 +8424,10 @@
         <v>7</v>
       </c>
       <c r="C425" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="D425" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="426" spans="1:4">
@@ -8435,7 +8438,7 @@
         <v>7</v>
       </c>
       <c r="C426" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D426" t="s">
         <v>7</v>
@@ -8449,10 +8452,10 @@
         <v>5</v>
       </c>
       <c r="C427" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="D427" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="428" spans="1:4">
@@ -8463,7 +8466,7 @@
         <v>3</v>
       </c>
       <c r="C428" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="D428" t="s">
         <v>3</v>
@@ -8477,7 +8480,7 @@
         <v>8</v>
       </c>
       <c r="C429" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D429" t="s">
         <v>8</v>
@@ -8491,7 +8494,7 @@
         <v>9</v>
       </c>
       <c r="C430" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="D430" t="s">
         <v>3</v>
@@ -8505,7 +8508,7 @@
         <v>8</v>
       </c>
       <c r="C431" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D431" t="s">
         <v>8</v>
@@ -8519,10 +8522,10 @@
         <v>3</v>
       </c>
       <c r="C432" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D432" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="433" spans="1:4">
@@ -8533,7 +8536,7 @@
         <v>5</v>
       </c>
       <c r="C433" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D433" t="s">
         <v>5</v>
@@ -8547,7 +8550,7 @@
         <v>8</v>
       </c>
       <c r="C434" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D434" t="s">
         <v>5</v>
@@ -8561,10 +8564,10 @@
         <v>3</v>
       </c>
       <c r="C435" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="D435" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:4">
@@ -8575,7 +8578,7 @@
         <v>3</v>
       </c>
       <c r="C436" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="D436" t="s">
         <v>3</v>
@@ -8589,7 +8592,7 @@
         <v>6</v>
       </c>
       <c r="C437" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D437" t="s">
         <v>6</v>
@@ -8603,10 +8606,10 @@
         <v>4</v>
       </c>
       <c r="C438" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="D438" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="439" spans="1:4">
@@ -8617,7 +8620,7 @@
         <v>9</v>
       </c>
       <c r="C439" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="D439" t="s">
         <v>9</v>
@@ -8631,7 +8634,7 @@
         <v>5</v>
       </c>
       <c r="C440" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="D440" t="s">
         <v>5</v>
@@ -8645,7 +8648,7 @@
         <v>8</v>
       </c>
       <c r="C441" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D441" t="s">
         <v>8</v>
@@ -8659,10 +8662,10 @@
         <v>8</v>
       </c>
       <c r="C442" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="D442" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="443" spans="1:4">
@@ -8673,7 +8676,7 @@
         <v>9</v>
       </c>
       <c r="C443" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="D443" t="s">
         <v>3</v>
@@ -8687,7 +8690,7 @@
         <v>5</v>
       </c>
       <c r="C444" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D444" t="s">
         <v>3</v>
@@ -8701,7 +8704,7 @@
         <v>9</v>
       </c>
       <c r="C445" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="D445" t="s">
         <v>9</v>
@@ -8715,10 +8718,10 @@
         <v>8</v>
       </c>
       <c r="C446" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="D446" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="447" spans="1:4">
@@ -8729,7 +8732,7 @@
         <v>7</v>
       </c>
       <c r="C447" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="D447" t="s">
         <v>9</v>
@@ -8743,10 +8746,10 @@
         <v>5</v>
       </c>
       <c r="C448" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D448" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="449" spans="1:4">
@@ -8757,7 +8760,7 @@
         <v>5</v>
       </c>
       <c r="C449" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D449" t="s">
         <v>8</v>
@@ -8771,10 +8774,10 @@
         <v>9</v>
       </c>
       <c r="C450" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D450" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="451" spans="1:4">
@@ -8785,7 +8788,7 @@
         <v>8</v>
       </c>
       <c r="C451" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D451" t="s">
         <v>9</v>
@@ -8799,7 +8802,7 @@
         <v>8</v>
       </c>
       <c r="C452" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="D452" t="s">
         <v>9</v>
@@ -8813,10 +8816,10 @@
         <v>3</v>
       </c>
       <c r="C453" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D453" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="454" spans="1:4">
@@ -8827,7 +8830,7 @@
         <v>9</v>
       </c>
       <c r="C454" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="D454" t="s">
         <v>9</v>
@@ -8841,7 +8844,7 @@
         <v>5</v>
       </c>
       <c r="C455" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="D455" t="s">
         <v>5</v>
@@ -8855,7 +8858,7 @@
         <v>6</v>
       </c>
       <c r="C456" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D456" t="s">
         <v>9</v>
@@ -8869,7 +8872,7 @@
         <v>9</v>
       </c>
       <c r="C457" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D457" t="s">
         <v>8</v>
@@ -8883,10 +8886,10 @@
         <v>4</v>
       </c>
       <c r="C458" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="D458" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="459" spans="1:4">
@@ -8897,7 +8900,7 @@
         <v>5</v>
       </c>
       <c r="C459" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D459" t="s">
         <v>5</v>
@@ -8911,7 +8914,7 @@
         <v>9</v>
       </c>
       <c r="C460" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="D460" t="s">
         <v>5</v>
@@ -8925,7 +8928,7 @@
         <v>8</v>
       </c>
       <c r="C461" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D461" t="s">
         <v>8</v>
@@ -8939,10 +8942,10 @@
         <v>9</v>
       </c>
       <c r="C462" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D462" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="463" spans="1:4">
@@ -8953,7 +8956,7 @@
         <v>9</v>
       </c>
       <c r="C463" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="D463" t="s">
         <v>9</v>
@@ -8967,7 +8970,7 @@
         <v>9</v>
       </c>
       <c r="C464" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="D464" t="s">
         <v>9</v>
@@ -8981,7 +8984,7 @@
         <v>5</v>
       </c>
       <c r="C465" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D465" t="s">
         <v>5</v>
@@ -8995,7 +8998,7 @@
         <v>9</v>
       </c>
       <c r="C466" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D466" t="s">
         <v>9</v>
@@ -9009,7 +9012,7 @@
         <v>3</v>
       </c>
       <c r="C467" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D467" t="s">
         <v>3</v>
@@ -9023,10 +9026,10 @@
         <v>6</v>
       </c>
       <c r="C468" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D468" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="469" spans="1:4">
@@ -9037,7 +9040,7 @@
         <v>8</v>
       </c>
       <c r="C469" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D469" t="s">
         <v>5</v>
@@ -9051,10 +9054,10 @@
         <v>8</v>
       </c>
       <c r="C470" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D470" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="471" spans="1:4">
@@ -9065,7 +9068,7 @@
         <v>9</v>
       </c>
       <c r="C471" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="D471" t="s">
         <v>8</v>
@@ -9079,7 +9082,7 @@
         <v>8</v>
       </c>
       <c r="C472" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D472" t="s">
         <v>5</v>
@@ -9093,7 +9096,7 @@
         <v>9</v>
       </c>
       <c r="C473" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="D473" t="s">
         <v>9</v>
@@ -9107,7 +9110,7 @@
         <v>5</v>
       </c>
       <c r="C474" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D474" t="s">
         <v>5</v>
@@ -9121,7 +9124,7 @@
         <v>7</v>
       </c>
       <c r="C475" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="D475" t="s">
         <v>5</v>
@@ -9135,7 +9138,7 @@
         <v>5</v>
       </c>
       <c r="C476" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="D476" t="s">
         <v>3</v>
@@ -9149,7 +9152,7 @@
         <v>9</v>
       </c>
       <c r="C477" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D477" t="s">
         <v>9</v>
@@ -9163,7 +9166,7 @@
         <v>9</v>
       </c>
       <c r="C478" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D478" t="s">
         <v>9</v>
@@ -9177,7 +9180,7 @@
         <v>7</v>
       </c>
       <c r="C479" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="D479" t="s">
         <v>8</v>
@@ -9191,7 +9194,7 @@
         <v>3</v>
       </c>
       <c r="C480" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="D480" t="s">
         <v>3</v>
@@ -9205,7 +9208,7 @@
         <v>9</v>
       </c>
       <c r="C481" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D481" t="s">
         <v>3</v>
@@ -9219,10 +9222,10 @@
         <v>9</v>
       </c>
       <c r="C482" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="D482" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="483" spans="1:4">
@@ -9233,7 +9236,7 @@
         <v>5</v>
       </c>
       <c r="C483" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D483" t="s">
         <v>5</v>
@@ -9247,7 +9250,7 @@
         <v>5</v>
       </c>
       <c r="C484" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="D484" t="s">
         <v>5</v>
@@ -9261,7 +9264,7 @@
         <v>5</v>
       </c>
       <c r="C485" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D485" t="s">
         <v>5</v>
@@ -9275,7 +9278,7 @@
         <v>9</v>
       </c>
       <c r="C486" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D486" t="s">
         <v>9</v>
@@ -9289,7 +9292,7 @@
         <v>8</v>
       </c>
       <c r="C487" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="D487" t="s">
         <v>8</v>
@@ -9303,10 +9306,10 @@
         <v>8</v>
       </c>
       <c r="C488" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="D488" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="489" spans="1:4">
@@ -9317,7 +9320,7 @@
         <v>3</v>
       </c>
       <c r="C489" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D489" t="s">
         <v>3</v>
@@ -9331,7 +9334,7 @@
         <v>9</v>
       </c>
       <c r="C490" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="D490" t="s">
         <v>9</v>
@@ -9345,7 +9348,7 @@
         <v>5</v>
       </c>
       <c r="C491" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="D491" t="s">
         <v>5</v>
@@ -9359,7 +9362,7 @@
         <v>7</v>
       </c>
       <c r="C492" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="D492" t="s">
         <v>5</v>
@@ -9373,7 +9376,7 @@
         <v>9</v>
       </c>
       <c r="C493" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D493" t="s">
         <v>9</v>
@@ -9387,7 +9390,7 @@
         <v>3</v>
       </c>
       <c r="C494" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D494" t="s">
         <v>3</v>
@@ -9401,7 +9404,7 @@
         <v>9</v>
       </c>
       <c r="C495" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D495" t="s">
         <v>9</v>
@@ -9415,7 +9418,7 @@
         <v>9</v>
       </c>
       <c r="C496" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D496" t="s">
         <v>5</v>
@@ -9429,7 +9432,7 @@
         <v>5</v>
       </c>
       <c r="C497" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="D497" t="s">
         <v>3</v>
@@ -9443,7 +9446,7 @@
         <v>3</v>
       </c>
       <c r="C498" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D498" t="s">
         <v>9</v>
@@ -9457,7 +9460,7 @@
         <v>8</v>
       </c>
       <c r="C499" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D499" t="s">
         <v>3</v>
@@ -9471,7 +9474,7 @@
         <v>9</v>
       </c>
       <c r="C500" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="D500" t="s">
         <v>9</v>
@@ -9485,7 +9488,7 @@
         <v>3</v>
       </c>
       <c r="C501" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="D501" t="s">
         <v>3</v>
@@ -9499,10 +9502,10 @@
         <v>8</v>
       </c>
       <c r="C502" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D502" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="503" spans="1:4">
@@ -9513,7 +9516,7 @@
         <v>8</v>
       </c>
       <c r="C503" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="D503" t="s">
         <v>9</v>
@@ -9527,7 +9530,7 @@
         <v>8</v>
       </c>
       <c r="C504" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D504" t="s">
         <v>9</v>
@@ -9541,10 +9544,10 @@
         <v>8</v>
       </c>
       <c r="C505" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="D505" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="506" spans="1:4">
@@ -9555,7 +9558,7 @@
         <v>5</v>
       </c>
       <c r="C506" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D506" t="s">
         <v>5</v>
@@ -9569,7 +9572,7 @@
         <v>6</v>
       </c>
       <c r="C507" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D507" t="s">
         <v>6</v>
@@ -9583,7 +9586,7 @@
         <v>3</v>
       </c>
       <c r="C508" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D508" t="s">
         <v>3</v>
@@ -9597,10 +9600,10 @@
         <v>5</v>
       </c>
       <c r="C509" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="D509" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="510" spans="1:4">
@@ -9611,7 +9614,7 @@
         <v>9</v>
       </c>
       <c r="C510" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D510" t="s">
         <v>3</v>
@@ -9625,7 +9628,7 @@
         <v>9</v>
       </c>
       <c r="C511" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="D511" t="s">
         <v>9</v>
@@ -9639,7 +9642,7 @@
         <v>5</v>
       </c>
       <c r="C512" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="D512" t="s">
         <v>5</v>
@@ -9653,7 +9656,7 @@
         <v>9</v>
       </c>
       <c r="C513" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="D513" t="s">
         <v>9</v>
@@ -9667,10 +9670,10 @@
         <v>3</v>
       </c>
       <c r="C514" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D514" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="515" spans="1:4">
@@ -9681,7 +9684,7 @@
         <v>9</v>
       </c>
       <c r="C515" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="D515" t="s">
         <v>9</v>
@@ -9695,10 +9698,10 @@
         <v>9</v>
       </c>
       <c r="C516" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D516" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="517" spans="1:4">
@@ -9709,7 +9712,7 @@
         <v>8</v>
       </c>
       <c r="C517" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="D517" t="s">
         <v>5</v>
@@ -9723,10 +9726,10 @@
         <v>9</v>
       </c>
       <c r="C518" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D518" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="519" spans="1:4">
@@ -9737,7 +9740,7 @@
         <v>5</v>
       </c>
       <c r="C519" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="D519" t="s">
         <v>5</v>
@@ -9751,10 +9754,10 @@
         <v>4</v>
       </c>
       <c r="C520" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="D520" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="521" spans="1:4">
@@ -9765,10 +9768,10 @@
         <v>5</v>
       </c>
       <c r="C521" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="D521" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="522" spans="1:4">
@@ -9779,7 +9782,7 @@
         <v>7</v>
       </c>
       <c r="C522" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="D522" t="s">
         <v>8</v>
@@ -9793,7 +9796,7 @@
         <v>3</v>
       </c>
       <c r="C523" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D523" t="s">
         <v>3</v>
@@ -9807,7 +9810,7 @@
         <v>9</v>
       </c>
       <c r="C524" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="D524" t="s">
         <v>8</v>
@@ -9821,10 +9824,10 @@
         <v>5</v>
       </c>
       <c r="C525" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D525" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="526" spans="1:4">
@@ -9835,7 +9838,7 @@
         <v>9</v>
       </c>
       <c r="C526" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D526" t="s">
         <v>9</v>
@@ -9849,7 +9852,7 @@
         <v>5</v>
       </c>
       <c r="C527" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D527" t="s">
         <v>5</v>
@@ -9863,10 +9866,10 @@
         <v>8</v>
       </c>
       <c r="C528" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D528" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="529" spans="1:4">
@@ -9877,7 +9880,7 @@
         <v>8</v>
       </c>
       <c r="C529" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D529" t="s">
         <v>5</v>
@@ -9891,7 +9894,7 @@
         <v>3</v>
       </c>
       <c r="C530" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D530" t="s">
         <v>3</v>
@@ -9905,10 +9908,10 @@
         <v>8</v>
       </c>
       <c r="C531" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D531" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="532" spans="1:4">
@@ -9919,10 +9922,10 @@
         <v>3</v>
       </c>
       <c r="C532" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D532" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="533" spans="1:4">
@@ -9933,7 +9936,7 @@
         <v>9</v>
       </c>
       <c r="C533" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D533" t="s">
         <v>9</v>
@@ -9947,7 +9950,7 @@
         <v>9</v>
       </c>
       <c r="C534" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D534" t="s">
         <v>9</v>
@@ -9961,7 +9964,7 @@
         <v>3</v>
       </c>
       <c r="C535" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D535" t="s">
         <v>3</v>
@@ -9975,10 +9978,10 @@
         <v>9</v>
       </c>
       <c r="C536" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D536" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="537" spans="1:4">
@@ -9989,7 +9992,7 @@
         <v>8</v>
       </c>
       <c r="C537" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D537" t="s">
         <v>7</v>
@@ -10003,10 +10006,10 @@
         <v>5</v>
       </c>
       <c r="C538" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D538" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="539" spans="1:4">
@@ -10017,10 +10020,10 @@
         <v>8</v>
       </c>
       <c r="C539" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D539" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="540" spans="1:4">
@@ -10031,10 +10034,10 @@
         <v>4</v>
       </c>
       <c r="C540" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D540" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="541" spans="1:4">
@@ -10045,10 +10048,10 @@
         <v>7</v>
       </c>
       <c r="C541" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D541" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="542" spans="1:4">
@@ -10059,7 +10062,7 @@
         <v>6</v>
       </c>
       <c r="C542" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D542" t="s">
         <v>6</v>
@@ -10073,7 +10076,7 @@
         <v>3</v>
       </c>
       <c r="C543" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D543" t="s">
         <v>3</v>
@@ -10087,7 +10090,7 @@
         <v>8</v>
       </c>
       <c r="C544" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D544" t="s">
         <v>8</v>
@@ -10101,7 +10104,7 @@
         <v>8</v>
       </c>
       <c r="C545" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D545" t="s">
         <v>3</v>
@@ -10115,7 +10118,7 @@
         <v>5</v>
       </c>
       <c r="C546" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D546" t="s">
         <v>9</v>
@@ -10129,7 +10132,7 @@
         <v>5</v>
       </c>
       <c r="C547" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D547" t="s">
         <v>5</v>
@@ -10143,10 +10146,10 @@
         <v>8</v>
       </c>
       <c r="C548" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D548" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="549" spans="1:4">
@@ -10157,7 +10160,7 @@
         <v>5</v>
       </c>
       <c r="C549" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D549" t="s">
         <v>8</v>
@@ -10171,7 +10174,7 @@
         <v>5</v>
       </c>
       <c r="C550" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D550" t="s">
         <v>5</v>
@@ -10185,7 +10188,7 @@
         <v>9</v>
       </c>
       <c r="C551" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D551" t="s">
         <v>8</v>
@@ -10199,7 +10202,7 @@
         <v>3</v>
       </c>
       <c r="C552" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D552" t="s">
         <v>3</v>
@@ -10213,10 +10216,10 @@
         <v>4</v>
       </c>
       <c r="C553" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D553" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="554" spans="1:4">
@@ -10227,7 +10230,7 @@
         <v>9</v>
       </c>
       <c r="C554" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D554" t="s">
         <v>9</v>
@@ -10241,7 +10244,7 @@
         <v>5</v>
       </c>
       <c r="C555" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D555" t="s">
         <v>5</v>
@@ -10255,10 +10258,10 @@
         <v>9</v>
       </c>
       <c r="C556" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D556" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="557" spans="1:4">
@@ -10269,10 +10272,10 @@
         <v>8</v>
       </c>
       <c r="C557" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D557" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="558" spans="1:4">
@@ -10283,7 +10286,7 @@
         <v>3</v>
       </c>
       <c r="C558" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D558" t="s">
         <v>8</v>
@@ -10297,7 +10300,7 @@
         <v>8</v>
       </c>
       <c r="C559" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D559" t="s">
         <v>5</v>
@@ -10311,7 +10314,7 @@
         <v>9</v>
       </c>
       <c r="C560" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D560" t="s">
         <v>9</v>
@@ -10325,10 +10328,10 @@
         <v>8</v>
       </c>
       <c r="C561" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D561" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="562" spans="1:4">
@@ -10339,7 +10342,7 @@
         <v>5</v>
       </c>
       <c r="C562" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D562" t="s">
         <v>5</v>
@@ -10353,10 +10356,10 @@
         <v>5</v>
       </c>
       <c r="C563" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D563" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="564" spans="1:4">
@@ -10367,7 +10370,7 @@
         <v>9</v>
       </c>
       <c r="C564" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D564" t="s">
         <v>9</v>
@@ -10381,7 +10384,7 @@
         <v>4</v>
       </c>
       <c r="C565" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D565" t="s">
         <v>3</v>
@@ -10395,7 +10398,7 @@
         <v>3</v>
       </c>
       <c r="C566" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D566" t="s">
         <v>8</v>
@@ -10409,7 +10412,7 @@
         <v>5</v>
       </c>
       <c r="C567" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D567" t="s">
         <v>5</v>
@@ -10423,7 +10426,7 @@
         <v>5</v>
       </c>
       <c r="C568" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D568" t="s">
         <v>5</v>
@@ -10437,7 +10440,7 @@
         <v>3</v>
       </c>
       <c r="C569" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D569" t="s">
         <v>3</v>
@@ -10451,7 +10454,7 @@
         <v>3</v>
       </c>
       <c r="C570" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D570" t="s">
         <v>7</v>
@@ -10465,7 +10468,7 @@
         <v>5</v>
       </c>
       <c r="C571" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D571" t="s">
         <v>5</v>
@@ -10479,7 +10482,7 @@
         <v>6</v>
       </c>
       <c r="C572" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D572" t="s">
         <v>7</v>
@@ -10493,7 +10496,7 @@
         <v>8</v>
       </c>
       <c r="C573" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D573" t="s">
         <v>3</v>
@@ -10507,7 +10510,7 @@
         <v>9</v>
       </c>
       <c r="C574" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D574" t="s">
         <v>7</v>
@@ -10521,7 +10524,7 @@
         <v>8</v>
       </c>
       <c r="C575" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D575" t="s">
         <v>8</v>
@@ -10535,7 +10538,7 @@
         <v>5</v>
       </c>
       <c r="C576" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D576" t="s">
         <v>5</v>
@@ -10549,7 +10552,7 @@
         <v>9</v>
       </c>
       <c r="C577" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D577" t="s">
         <v>9</v>
@@ -10563,7 +10566,7 @@
         <v>9</v>
       </c>
       <c r="C578" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D578" t="s">
         <v>9</v>
@@ -10577,7 +10580,7 @@
         <v>7</v>
       </c>
       <c r="C579" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D579" t="s">
         <v>3</v>
@@ -10591,10 +10594,10 @@
         <v>9</v>
       </c>
       <c r="C580" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D580" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="581" spans="1:4">
@@ -10605,10 +10608,10 @@
         <v>9</v>
       </c>
       <c r="C581" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D581" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="582" spans="1:4">
@@ -10619,7 +10622,7 @@
         <v>9</v>
       </c>
       <c r="C582" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D582" t="s">
         <v>9</v>
@@ -10633,10 +10636,10 @@
         <v>9</v>
       </c>
       <c r="C583" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D583" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="584" spans="1:4">
@@ -10647,10 +10650,10 @@
         <v>3</v>
       </c>
       <c r="C584" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D584" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="585" spans="1:4">
@@ -10661,7 +10664,7 @@
         <v>3</v>
       </c>
       <c r="C585" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D585" t="s">
         <v>3</v>
@@ -10675,7 +10678,7 @@
         <v>5</v>
       </c>
       <c r="C586" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D586" t="s">
         <v>5</v>
@@ -10689,10 +10692,10 @@
         <v>9</v>
       </c>
       <c r="C587" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D587" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="588" spans="1:4">
@@ -10703,7 +10706,7 @@
         <v>5</v>
       </c>
       <c r="C588" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D588" t="s">
         <v>9</v>
@@ -10717,7 +10720,7 @@
         <v>5</v>
       </c>
       <c r="C589" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D589" t="s">
         <v>5</v>
@@ -10731,7 +10734,7 @@
         <v>9</v>
       </c>
       <c r="C590" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D590" t="s">
         <v>9</v>
@@ -10745,7 +10748,7 @@
         <v>6</v>
       </c>
       <c r="C591" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D591" t="s">
         <v>9</v>
@@ -10759,7 +10762,7 @@
         <v>5</v>
       </c>
       <c r="C592" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D592" t="s">
         <v>5</v>
@@ -10773,7 +10776,7 @@
         <v>5</v>
       </c>
       <c r="C593" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D593" t="s">
         <v>3</v>
@@ -10787,7 +10790,7 @@
         <v>8</v>
       </c>
       <c r="C594" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D594" t="s">
         <v>8</v>
@@ -10801,7 +10804,7 @@
         <v>3</v>
       </c>
       <c r="C595" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D595" t="s">
         <v>3</v>
@@ -10815,7 +10818,7 @@
         <v>7</v>
       </c>
       <c r="C596" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D596" t="s">
         <v>5</v>
@@ -10829,7 +10832,7 @@
         <v>5</v>
       </c>
       <c r="C597" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D597" t="s">
         <v>5</v>
@@ -10843,7 +10846,7 @@
         <v>9</v>
       </c>
       <c r="C598" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D598" t="s">
         <v>9</v>
@@ -10857,10 +10860,10 @@
         <v>3</v>
       </c>
       <c r="C599" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D599" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="600" spans="1:4">
@@ -10871,7 +10874,7 @@
         <v>5</v>
       </c>
       <c r="C600" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D600" t="s">
         <v>7</v>
@@ -10885,10 +10888,10 @@
         <v>3</v>
       </c>
       <c r="C601" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D601" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="602" spans="1:4">
@@ -10899,10 +10902,10 @@
         <v>8</v>
       </c>
       <c r="C602" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D602" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="603" spans="1:4">
@@ -10913,7 +10916,7 @@
         <v>7</v>
       </c>
       <c r="C603" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D603" t="s">
         <v>7</v>
@@ -10927,10 +10930,10 @@
         <v>3</v>
       </c>
       <c r="C604" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D604" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="605" spans="1:4">
@@ -10941,7 +10944,7 @@
         <v>9</v>
       </c>
       <c r="C605" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D605" t="s">
         <v>9</v>
@@ -10955,7 +10958,7 @@
         <v>9</v>
       </c>
       <c r="C606" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D606" t="s">
         <v>9</v>
@@ -10969,7 +10972,7 @@
         <v>3</v>
       </c>
       <c r="C607" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D607" t="s">
         <v>3</v>
@@ -10983,7 +10986,7 @@
         <v>3</v>
       </c>
       <c r="C608" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D608" t="s">
         <v>5</v>
@@ -10997,7 +11000,7 @@
         <v>3</v>
       </c>
       <c r="C609" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D609" t="s">
         <v>5</v>
@@ -11011,7 +11014,7 @@
         <v>8</v>
       </c>
       <c r="C610" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D610" t="s">
         <v>5</v>
@@ -11025,7 +11028,7 @@
         <v>9</v>
       </c>
       <c r="C611" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D611" t="s">
         <v>9</v>
@@ -11039,7 +11042,7 @@
         <v>3</v>
       </c>
       <c r="C612" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D612" t="s">
         <v>3</v>
@@ -11053,7 +11056,7 @@
         <v>8</v>
       </c>
       <c r="C613" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D613" t="s">
         <v>8</v>
@@ -11067,7 +11070,7 @@
         <v>9</v>
       </c>
       <c r="C614" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D614" t="s">
         <v>9</v>
@@ -11081,7 +11084,7 @@
         <v>9</v>
       </c>
       <c r="C615" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D615" t="s">
         <v>9</v>
@@ -11095,7 +11098,7 @@
         <v>3</v>
       </c>
       <c r="C616" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D616" t="s">
         <v>3</v>
@@ -11109,10 +11112,10 @@
         <v>9</v>
       </c>
       <c r="C617" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D617" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="618" spans="1:4">
@@ -11123,7 +11126,7 @@
         <v>9</v>
       </c>
       <c r="C618" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D618" t="s">
         <v>9</v>
@@ -11137,7 +11140,7 @@
         <v>3</v>
       </c>
       <c r="C619" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D619" t="s">
         <v>3</v>
@@ -11151,7 +11154,7 @@
         <v>9</v>
       </c>
       <c r="C620" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D620" t="s">
         <v>7</v>
@@ -11165,7 +11168,7 @@
         <v>3</v>
       </c>
       <c r="C621" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D621" t="s">
         <v>3</v>
@@ -11179,7 +11182,7 @@
         <v>5</v>
       </c>
       <c r="C622" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D622" t="s">
         <v>9</v>
@@ -11193,7 +11196,7 @@
         <v>8</v>
       </c>
       <c r="C623" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D623" t="s">
         <v>3</v>
@@ -11207,10 +11210,10 @@
         <v>8</v>
       </c>
       <c r="C624" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D624" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="625" spans="1:4">
@@ -11221,10 +11224,10 @@
         <v>7</v>
       </c>
       <c r="C625" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D625" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="626" spans="1:4">
@@ -11235,7 +11238,7 @@
         <v>5</v>
       </c>
       <c r="C626" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D626" t="s">
         <v>5</v>
@@ -11249,10 +11252,10 @@
         <v>9</v>
       </c>
       <c r="C627" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D627" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="628" spans="1:4">
@@ -11263,7 +11266,7 @@
         <v>8</v>
       </c>
       <c r="C628" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D628" t="s">
         <v>5</v>
@@ -11277,7 +11280,7 @@
         <v>5</v>
       </c>
       <c r="C629" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D629" t="s">
         <v>5</v>
@@ -11291,7 +11294,7 @@
         <v>6</v>
       </c>
       <c r="C630" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D630" t="s">
         <v>5</v>
@@ -11305,7 +11308,7 @@
         <v>7</v>
       </c>
       <c r="C631" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D631" t="s">
         <v>5</v>
@@ -11319,7 +11322,7 @@
         <v>9</v>
       </c>
       <c r="C632" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D632" t="s">
         <v>9</v>
@@ -11333,7 +11336,7 @@
         <v>8</v>
       </c>
       <c r="C633" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D633" t="s">
         <v>8</v>
@@ -11347,7 +11350,7 @@
         <v>3</v>
       </c>
       <c r="C634" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D634" t="s">
         <v>8</v>
@@ -11361,7 +11364,7 @@
         <v>4</v>
       </c>
       <c r="C635" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D635" t="s">
         <v>5</v>
@@ -11375,7 +11378,7 @@
         <v>3</v>
       </c>
       <c r="C636" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D636" t="s">
         <v>3</v>
@@ -11389,7 +11392,7 @@
         <v>5</v>
       </c>
       <c r="C637" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D637" t="s">
         <v>5</v>
@@ -11403,7 +11406,7 @@
         <v>8</v>
       </c>
       <c r="C638" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D638" t="s">
         <v>8</v>
@@ -11417,7 +11420,7 @@
         <v>9</v>
       </c>
       <c r="C639" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D639" t="s">
         <v>9</v>
@@ -11431,7 +11434,7 @@
         <v>8</v>
       </c>
       <c r="C640" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D640" t="s">
         <v>8</v>
@@ -11445,7 +11448,7 @@
         <v>6</v>
       </c>
       <c r="C641" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="D641" t="s">
         <v>5</v>
@@ -11459,10 +11462,10 @@
         <v>9</v>
       </c>
       <c r="C642" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="D642" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="643" spans="1:4">
@@ -11473,7 +11476,7 @@
         <v>3</v>
       </c>
       <c r="C643" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="D643" t="s">
         <v>5</v>
@@ -11487,7 +11490,7 @@
         <v>8</v>
       </c>
       <c r="C644" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="D644" t="s">
         <v>8</v>
@@ -11515,7 +11518,7 @@
         <v>9</v>
       </c>
       <c r="C646" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="D646" t="s">
         <v>9</v>
@@ -11529,7 +11532,7 @@
         <v>3</v>
       </c>
       <c r="C647" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D647" t="s">
         <v>8</v>
@@ -11543,7 +11546,7 @@
         <v>3</v>
       </c>
       <c r="C648" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="D648" t="s">
         <v>3</v>
@@ -11557,7 +11560,7 @@
         <v>9</v>
       </c>
       <c r="C649" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="D649" t="s">
         <v>9</v>
@@ -11571,7 +11574,7 @@
         <v>9</v>
       </c>
       <c r="C650" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="D650" t="s">
         <v>9</v>
@@ -11585,7 +11588,7 @@
         <v>5</v>
       </c>
       <c r="C651" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="D651" t="s">
         <v>7</v>
@@ -11599,7 +11602,7 @@
         <v>5</v>
       </c>
       <c r="C652" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="D652" t="s">
         <v>7</v>
@@ -11613,7 +11616,7 @@
         <v>9</v>
       </c>
       <c r="C653" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="D653" t="s">
         <v>9</v>
@@ -11627,10 +11630,10 @@
         <v>9</v>
       </c>
       <c r="C654" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="D654" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="655" spans="1:4">
@@ -11641,10 +11644,10 @@
         <v>7</v>
       </c>
       <c r="C655" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="D655" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="656" spans="1:4">
@@ -11655,7 +11658,7 @@
         <v>9</v>
       </c>
       <c r="C656" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="D656" t="s">
         <v>9</v>
@@ -11669,7 +11672,7 @@
         <v>3</v>
       </c>
       <c r="C657" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D657" t="s">
         <v>3</v>
@@ -11683,7 +11686,7 @@
         <v>3</v>
       </c>
       <c r="C658" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="D658" t="s">
         <v>3</v>
@@ -11697,7 +11700,7 @@
         <v>6</v>
       </c>
       <c r="C659" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="D659" t="s">
         <v>6</v>
@@ -11711,7 +11714,7 @@
         <v>4</v>
       </c>
       <c r="C660" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="D660" t="s">
         <v>5</v>
@@ -11725,7 +11728,7 @@
         <v>5</v>
       </c>
       <c r="C661" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D661" t="s">
         <v>6</v>
@@ -11739,7 +11742,7 @@
         <v>3</v>
       </c>
       <c r="C662" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="D662" t="s">
         <v>3</v>
@@ -11753,7 +11756,7 @@
         <v>5</v>
       </c>
       <c r="C663" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="D663" t="s">
         <v>5</v>
@@ -11767,7 +11770,7 @@
         <v>5</v>
       </c>
       <c r="C664" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="D664" t="s">
         <v>8</v>
@@ -11781,7 +11784,7 @@
         <v>9</v>
       </c>
       <c r="C665" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="D665" t="s">
         <v>9</v>
@@ -11795,10 +11798,10 @@
         <v>8</v>
       </c>
       <c r="C666" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="D666" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="667" spans="1:4">
@@ -11809,7 +11812,7 @@
         <v>3</v>
       </c>
       <c r="C667" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="D667" t="s">
         <v>9</v>
@@ -11823,10 +11826,10 @@
         <v>5</v>
       </c>
       <c r="C668" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="D668" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="669" spans="1:4">
@@ -11837,10 +11840,10 @@
         <v>6</v>
       </c>
       <c r="C669" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="D669" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="670" spans="1:4">
@@ -11851,10 +11854,10 @@
         <v>9</v>
       </c>
       <c r="C670" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="D670" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="671" spans="1:4">
@@ -11865,7 +11868,7 @@
         <v>6</v>
       </c>
       <c r="C671" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D671" t="s">
         <v>5</v>
@@ -11879,7 +11882,7 @@
         <v>4</v>
       </c>
       <c r="C672" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="D672" t="s">
         <v>9</v>
@@ -11893,7 +11896,7 @@
         <v>9</v>
       </c>
       <c r="C673" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="D673" t="s">
         <v>9</v>
@@ -11907,7 +11910,7 @@
         <v>9</v>
       </c>
       <c r="C674" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="D674" t="s">
         <v>9</v>
@@ -11921,7 +11924,7 @@
         <v>7</v>
       </c>
       <c r="C675" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="D675" t="s">
         <v>9</v>
@@ -11935,7 +11938,7 @@
         <v>9</v>
       </c>
       <c r="C676" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="D676" t="s">
         <v>9</v>
@@ -11949,10 +11952,10 @@
         <v>3</v>
       </c>
       <c r="C677" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="D677" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="678" spans="1:4">
@@ -11963,7 +11966,7 @@
         <v>9</v>
       </c>
       <c r="C678" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="D678" t="s">
         <v>9</v>
@@ -11977,7 +11980,7 @@
         <v>5</v>
       </c>
       <c r="C679" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="D679" t="s">
         <v>5</v>
@@ -11991,10 +11994,10 @@
         <v>8</v>
       </c>
       <c r="C680" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D680" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="681" spans="1:4">
@@ -12005,7 +12008,7 @@
         <v>3</v>
       </c>
       <c r="C681" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D681" t="s">
         <v>7</v>
@@ -12019,7 +12022,7 @@
         <v>5</v>
       </c>
       <c r="C682" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D682" t="s">
         <v>5</v>
@@ -12033,7 +12036,7 @@
         <v>8</v>
       </c>
       <c r="C683" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D683" t="s">
         <v>5</v>
@@ -12047,7 +12050,7 @@
         <v>9</v>
       </c>
       <c r="C684" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="D684" t="s">
         <v>5</v>
@@ -12061,10 +12064,10 @@
         <v>3</v>
       </c>
       <c r="C685" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="D685" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="686" spans="1:4">
@@ -12075,7 +12078,7 @@
         <v>9</v>
       </c>
       <c r="C686" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="D686" t="s">
         <v>9</v>
@@ -12089,10 +12092,10 @@
         <v>8</v>
       </c>
       <c r="C687" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D687" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="688" spans="1:4">
@@ -12103,7 +12106,7 @@
         <v>9</v>
       </c>
       <c r="C688" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D688" t="s">
         <v>9</v>
@@ -12117,10 +12120,10 @@
         <v>8</v>
       </c>
       <c r="C689" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D689" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="690" spans="1:4">
@@ -12131,7 +12134,7 @@
         <v>3</v>
       </c>
       <c r="C690" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="D690" t="s">
         <v>5</v>
@@ -12145,7 +12148,7 @@
         <v>9</v>
       </c>
       <c r="C691" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="D691" t="s">
         <v>9</v>
@@ -12159,7 +12162,7 @@
         <v>4</v>
       </c>
       <c r="C692" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="D692" t="s">
         <v>9</v>
@@ -12173,7 +12176,7 @@
         <v>8</v>
       </c>
       <c r="C693" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D693" t="s">
         <v>8</v>
@@ -12187,7 +12190,7 @@
         <v>4</v>
       </c>
       <c r="C694" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D694" t="s">
         <v>4</v>
